--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J239"/>
+  <dimension ref="A1:J240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
+          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
+          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,21 +491,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30/08/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Cabaña Oeste</t>
+          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>30/08/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
+          <t>Genérica Sub-Bloque Cabaña Oeste</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>750</v>
+        <v>220000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/06/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Invernada ZG-A</t>
+          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>514</v>
+        <v>750</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>07/06/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
+          <t>Línea de Flujo PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12000</v>
+        <v>514</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>29/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
+          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2620</v>
+        <v>12000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>29/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Trébol ZG-B</t>
+          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,11 +779,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>250</v>
+        <v>2620</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
+          <t>Línea de Flujo PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,21 +827,21 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/11/2020</t>
+          <t>18/01/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,11 +967,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>975</v>
+        <v>10</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>975</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>19/11/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13/10/2020</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
+          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,11 +1115,11 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/06/2020</t>
+          <t>13/10/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Estimulación hidráulica del pozo Koo x-1</t>
+          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>02/01/2020</t>
+          <t>10/06/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Producción del pozo Koo x-1</t>
+          <t>Estimulación hidráulica del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>760</v>
+        <v>1500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Rigby x-1</t>
+          <t>Producción del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>02/01/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Huillin x-1</t>
+          <t>Desarrollo del pozo Rigby x-1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2160</v>
+        <v>1760</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>27/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Koo x-1</t>
+          <t>Desarrollo del pozo Huillin x-1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>27/12/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
+          <t>Desarrollo del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6000</v>
+        <v>2160</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>04/12/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
+          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,11 +1451,11 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>213000</v>
+        <v>6000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>04/12/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Línea de Flujo Tres Lagos 110</t>
+          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,11 +1499,11 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>400</v>
+        <v>213000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/08/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
+          <t>Línea de Flujo Tres Lagos 110</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
+          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,21 +1595,21 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>213000</v>
+        <v>400</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>20/08/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,21 +1643,21 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>700</v>
+        <v>213000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/06/2019</t>
+          <t>05/08/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
+          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1691,11 +1691,11 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>44800</v>
+        <v>700</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18/12/2018</t>
+          <t>20/06/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>600</v>
+        <v>44800</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
+          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,11 +1787,11 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>11/12/2018</t>
+          <t>18/12/2018</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
+          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,11 +1835,11 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>11/12/2018</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6 Líneas de Flujo en el Bloque Arenal</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,11 +1883,11 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>55</v>
+        <v>4000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/05/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>6 Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,11 +1931,11 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>14000</v>
+        <v>55</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>16/05/2018</t>
+          <t>18/05/2018</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,11 +1979,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15/03/2018</t>
+          <t>16/05/2018</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,21 +2027,21 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09/03/2018</t>
+          <t>15/03/2018</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2075,21 +2075,21 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>55</v>
+        <v>14000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19/02/2018</t>
+          <t>09/03/2018</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,11 +2123,11 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>186000</v>
+        <v>55</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13/12/2017</t>
+          <t>19/02/2018</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Tres Lagos</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>400</v>
+        <v>186000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>07/11/2017</t>
+          <t>13/12/2017</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5 Multipozos en el Bloque Arenal</t>
+          <t>Extracción de Áridos Tres Lagos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>52000</v>
+        <v>400</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>17/10/2017</t>
+          <t>07/11/2017</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>5 Multipozos en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>21000</v>
+        <v>52000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09/08/2017</t>
+          <t>17/10/2017</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Interconexión Líneas de Flujo</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,11 +2315,11 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>500</v>
+        <v>21000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>17/03/2017</t>
+          <t>09/08/2017</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>Interconexión Líneas de Flujo</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>22000</v>
+        <v>500</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Colector Barwick</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,21 +2411,21 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1500</v>
+        <v>22000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>17/02/2017</t>
+          <t>17/03/2017</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>Colector Barwick</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,21 +2459,21 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>42000</v>
+        <v>1500</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>03/01/2017</t>
+          <t>17/02/2017</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,21 +2507,21 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1200</v>
+        <v>42000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18/07/2016</t>
+          <t>03/01/2017</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,11 +2555,11 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>20000</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>29/04/2016</t>
+          <t>18/07/2016</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,11 +2603,11 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>18/02/2016</t>
+          <t>29/04/2016</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
+          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,11 +2699,11 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>21000</v>
+        <v>1200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>18/02/2016</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,21 +2747,21 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>450</v>
+        <v>21000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,21 +2795,21 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
+          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,11 +2843,11 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7920</v>
+        <v>1200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,11 +2939,11 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>21000</v>
+        <v>7920</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
+          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,11 +2987,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>204000</v>
+        <v>21000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>02/09/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
+          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2400</v>
+        <v>204000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
+          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,21 +3083,21 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>850</v>
+        <v>2400</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>18/08/2015</t>
+          <t>02/09/2015</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>04/08/2015</t>
+          <t>18/08/2015</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>04/08/2015</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>7920</v>
+        <v>1600</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>20000</v>
+        <v>7920</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,21 +3371,21 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1600</v>
+        <v>20000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,21 +3419,21 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1144</v>
+        <v>1600</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>15/05/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
+          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,11 +3467,11 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>850</v>
+        <v>1144</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>15/05/2015</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
+          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
+          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
+          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3611,11 +3611,11 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
+          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
+          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3755,11 +3755,11 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>39600</v>
+        <v>1050</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3803,11 +3803,11 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>800</v>
+        <v>39600</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
+          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,11 +3851,11 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
+          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,11 +3899,11 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,11 +3995,11 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>43200</v>
+        <v>750</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>09/12/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>55000</v>
+        <v>43200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>750</v>
+        <v>55000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>09/12/2014</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>980</v>
+        <v>750</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloque Arenal</t>
+          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>150000</v>
+        <v>980</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>06/11/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
+          <t>Genérica Sub Bloque Arenal</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>22500</v>
+        <v>150000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>06/11/2014</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4283,21 +4283,21 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>27/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>750</v>
+        <v>45000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>24/10/2014</t>
+          <t>27/10/2014</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Extracción y procesamiento de áridos Tafra</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>440</v>
+        <v>750</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>24/10/2014</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de áridos Tafra</t>
+          <t>Extracción y procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>29/08/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Bellavista Sur x-1</t>
+          <t>Extracción y Procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>26/08/2014</t>
+          <t>29/08/2014</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
+          <t>Desarrollo del pozo Bellavista Sur x-1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4523,11 +4523,11 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>75000</v>
+        <v>800</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>26/08/2014</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>25200</v>
+        <v>75000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
+          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>75000</v>
+        <v>25200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>15/07/2014</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4667,11 +4667,11 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>07/07/2014</t>
+          <t>15/07/2014</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>47500</v>
+        <v>45000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,11 +4763,11 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>52500</v>
+        <v>47500</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>03/07/2014</t>
+          <t>07/07/2014</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>27000</v>
+        <v>52500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>03/07/2014</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>27/06/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>27000</v>
+        <v>75000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23/06/2014</t>
+          <t>27/06/2014</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4955,21 +4955,21 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>240</v>
+        <v>27000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>23/06/2014</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
+          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5003,11 +5003,11 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>16100</v>
+        <v>240</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>16/06/2014</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>11700</v>
+        <v>16100</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5099,11 +5099,11 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3600</v>
+        <v>11700</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>11/06/2014</t>
+          <t>16/06/2014</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
+          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>75000</v>
+        <v>3600</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>02/06/2014</t>
+          <t>11/06/2014</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Tanu x-1</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5195,11 +5195,11 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>800</v>
+        <v>75000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>28/05/2014</t>
+          <t>02/06/2014</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aneki x-1</t>
+          <t>Desarrollo del pozo Tanu x-1</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aymi x-1</t>
+          <t>Desarrollo del pozo Aneki x-1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>22/05/2014</t>
+          <t>28/05/2014</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>Desarrollo del pozo Aymi x-1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20/05/2014</t>
+          <t>22/05/2014</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
+          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5387,11 +5387,11 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>58800</v>
+        <v>500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>22/04/2014</t>
+          <t>20/05/2014</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Pantano Oeste x-1</t>
+          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>800</v>
+        <v>58800</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Keternen x-1</t>
+          <t>Desarrollo del pozo Pantano Oeste x-1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>17/04/2014</t>
+          <t>22/04/2014</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
+          <t>Desarrollo del pozo Keternen x-1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5531,11 +5531,11 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>976</v>
+        <v>800</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>17/04/2014</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
+          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1082</v>
+        <v>976</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,11 +5627,11 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>7000</v>
+        <v>1082</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>25/02/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
+          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5675,11 +5675,11 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>25/02/2014</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
+          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5723,11 +5723,11 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>19200</v>
+        <v>2400</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
+          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5819,7 +5819,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>800</v>
+        <v>19200</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5867,11 +5867,11 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>03/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,11 +5915,11 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>03/12/2013</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,11 +5963,11 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>11200</v>
+        <v>1800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>30/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
+          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>16</v>
+        <v>11200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>24/09/2013</t>
+          <t>30/09/2013</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>6000</v>
+        <v>16</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>24/09/2013</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,11 +6155,11 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>37500</v>
+        <v>18000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6203,11 +6203,11 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>850</v>
+        <v>37500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>29/08/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,21 +6251,21 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>37500</v>
+        <v>850</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>26/07/2013</t>
+          <t>29/08/2013</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6299,7 +6299,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>6000</v>
+        <v>37500</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6395,21 +6395,21 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2500</v>
+        <v>18000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>26/07/2013</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
+          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,21 +6443,21 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>14/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LYNCH V-1</t>
+          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,11 +6491,11 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>150</v>
+        <v>4000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>11/06/2013</t>
+          <t>14/06/2013</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
+          <t>LÍNEA DE FLUJO LYNCH V-1</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,11 +6539,11 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>03/06/2013</t>
+          <t>11/06/2013</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
+          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,11 +6587,11 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>30/04/2013</t>
+          <t>03/06/2013</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Caracol B</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>25/04/2013</t>
+          <t>30/04/2013</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
+          <t>Perforación de Pozo Exploratorio Caracol B</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,11 +6683,11 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>19/04/2013</t>
+          <t>25/04/2013</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,11 +6731,11 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1155</v>
+        <v>2400</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>22/03/2013</t>
+          <t>19/04/2013</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
+          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,11 +6779,11 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1370</v>
+        <v>1155</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>22/03/2013</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
+          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,11 +6827,11 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2500</v>
+        <v>1370</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
+          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,11 +6875,11 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>15/02/2013</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
+          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,11 +6923,11 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>6600</v>
+        <v>1200</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>30/11/2012</t>
+          <t>15/02/2013</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
+          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6971,11 +6971,11 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>30/11/2012</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
+          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,11 +7019,11 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
+          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,11 +7067,11 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>90000</v>
+        <v>5100</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>25/09/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
+          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,11 +7115,11 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>21/08/2012</t>
+          <t>25/09/2012</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
+          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,11 +7163,11 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>21/08/2012</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,11 +7211,11 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>174</v>
+        <v>2000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>26/06/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Manantiales</t>
+          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,11 +7259,11 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>9600</v>
+        <v>174</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>06/06/2012</t>
+          <t>26/06/2012</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
+          <t>Genérica Sub-Bloque Manantiales</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,11 +7307,11 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>60000</v>
+        <v>9600</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>24/04/2012</t>
+          <t>06/06/2012</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
+          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,11 +7355,11 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>420</v>
+        <v>60000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>09/04/2012</t>
+          <t>24/04/2012</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
+          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,11 +7403,11 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>05/04/2012</t>
+          <t>09/04/2012</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Geike A</t>
+          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,11 +7451,11 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2000</v>
+        <v>280</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>20/03/2012</t>
+          <t>05/04/2012</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
+          <t>Perforación de Pozo Exploratorio Geike A</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7499,11 +7499,11 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>710</v>
+        <v>2000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>25/01/2012</t>
+          <t>20/03/2012</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,11 +7547,11 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>30000</v>
+        <v>710</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>16/01/2012</t>
+          <t>25/01/2012</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
+          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7595,11 +7595,11 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2200</v>
+        <v>30000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>29/12/2011</t>
+          <t>16/01/2012</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
+          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7643,11 +7643,11 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>23/12/2011</t>
+          <t>29/12/2011</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
+          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7691,11 +7691,11 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>96000</v>
+        <v>1100</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>20/12/2011</t>
+          <t>23/12/2011</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
+          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7739,11 +7739,11 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1510</v>
+        <v>96000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>05/12/2011</t>
+          <t>20/12/2011</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7787,11 +7787,11 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2200</v>
+        <v>1510</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>05/12/2011</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
+          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7835,11 +7835,11 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>15000</v>
+        <v>2200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
+          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7883,11 +7883,11 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>11/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
+          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7979,11 +7979,11 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>11/11/2011</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
+          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8027,11 +8027,11 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>06/09/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
+          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8075,11 +8075,11 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>28/07/2011</t>
+          <t>06/09/2011</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
+          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8123,11 +8123,11 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>18/07/2011</t>
+          <t>28/07/2011</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
+          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,11 +8171,11 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>07/06/2011</t>
+          <t>18/07/2011</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
+          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>06/06/2011</t>
+          <t>07/06/2011</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
+          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8267,11 +8267,11 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>31/05/2011</t>
+          <t>06/06/2011</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
+          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,11 +8315,11 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>3100</v>
+        <v>4000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>20/05/2011</t>
+          <t>31/05/2011</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
+          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>20/05/2011</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
+          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,21 +8411,21 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2250</v>
+        <v>3100</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>03/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,21 +8459,21 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1300</v>
+        <v>2250</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>26/01/2011</t>
+          <t>03/03/2011</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
+          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,21 +8507,21 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>13/12/2010</t>
+          <t>26/01/2011</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
+          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,11 +8555,11 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>13/12/2010</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
+          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,11 +8603,11 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>12/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
+          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>24/08/2010</t>
+          <t>12/10/2010</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
+          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,11 +8699,11 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>19/08/2010</t>
+          <t>24/08/2010</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
+          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8747,11 +8747,11 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>22/07/2010</t>
+          <t>19/08/2010</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
+          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8795,11 +8795,11 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1000</v>
+        <v>2250</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>20/07/2010</t>
+          <t>22/07/2010</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>12/07/2010</t>
+          <t>20/07/2010</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Perforación del Pozo Exploratorio Mataquito B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8891,11 +8891,11 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>16/06/2010</t>
+          <t>12/07/2010</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>Perforación del Pozo Exploratorio Mataquito B</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,11 +8939,11 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>16/06/2010</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
+          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8987,11 +8987,11 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9035,11 +9035,11 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9083,21 +9083,21 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
+          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,21 +9131,21 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
+          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9179,11 +9179,11 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>22/03/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Pozo de Exploración Manantiales Oeste B</t>
+          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,11 +9227,11 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>22/03/2010</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
+          <t>Pozo de Exploración Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>26/02/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
+          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9323,11 +9323,11 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>26/02/2010</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
+          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9371,11 +9371,11 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>04/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
+          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9419,11 +9419,11 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>20/11/2009</t>
+          <t>04/01/2010</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
+          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>20/11/2009</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
+          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9515,11 +9515,11 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>28/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
+          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9563,11 +9563,11 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>20/10/2009</t>
+          <t>28/10/2009</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
+          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9611,11 +9611,11 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>02/10/2009</t>
+          <t>20/10/2009</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
+          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9659,11 +9659,11 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>02/10/2009</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
+          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9707,11 +9707,11 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>18/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
+          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9755,11 +9755,11 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>52000</v>
+        <v>2500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>12/06/2009</t>
+          <t>18/06/2009</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
+          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9803,11 +9803,11 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>52000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>12/06/2009</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9855,17 +9855,17 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>19/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9899,21 +9899,21 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2346</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>19/12/2008</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
+          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9947,11 +9947,11 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>3200</v>
+        <v>2346</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
+          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9995,11 +9995,11 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>100</v>
+        <v>3200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
+          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,15 +10039,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Primavera</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>23/07/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
+          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,15 +10087,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Ilustre Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>30800</v>
+        <v>0</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>12/03/2008</t>
+          <t>23/07/2008</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10139,11 +10139,11 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>25200</v>
+        <v>30800</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>12/03/2008</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,15 +10183,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>21</v>
+        <v>25200</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
+          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,15 +10231,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>13000</v>
+        <v>21</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,30 +10274,30 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,30 +10322,30 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,15 +10375,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Inversiones Polo Sur Ltda</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
+          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10431,17 +10431,17 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>24/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,30 +10466,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Inversiones Polo Sur Ltda</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>24/01/2007</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10527,17 +10527,17 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10619,7 +10619,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
+          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10667,11 +10667,11 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>22/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10715,11 +10715,11 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>26/10/2006</t>
+          <t>22/12/2006</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
+          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10763,11 +10763,11 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1800</v>
+        <v>65</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>28/08/2006</t>
+          <t>26/10/2006</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,25 +10807,25 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>28/08/2006</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10863,17 +10863,17 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,30 +10898,30 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,30 +10946,30 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>829</v>
+        <v>4000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>16/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,30 +10994,30 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>4000</v>
+        <v>829</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>16/03/2006</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,40 +11032,40 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>73200</v>
+        <v>4000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,12 +11080,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
+          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -11095,15 +11095,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Gabriel Patiño Kaufer</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>16000</v>
+        <v>73200</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>15/11/2004</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11151,17 +11151,17 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>15/11/2004</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,12 +11176,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Gasoducto Segundo Cruce</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -11191,25 +11191,25 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Gabriel Patiño Kaufer</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>25400</v>
+        <v>16000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>24/10/2003</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,12 +11224,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Gasoducto Segundo Cruce</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -11239,15 +11239,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>25400</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>24/10/2003</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,15 +11287,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>13/12/2002</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,12 +11320,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -11343,7 +11343,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>25/06/2002</t>
+          <t>13/12/2002</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,12 +11368,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
+          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -11387,11 +11387,11 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>40</v>
+        <v>9500</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>18/06/2002</t>
+          <t>25/06/2002</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11435,7 +11435,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,12 +11464,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -11483,11 +11483,11 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4100</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>17/01/2002</t>
+          <t>18/06/2002</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,12 +11512,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
+          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -11531,11 +11531,11 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>22/10/2001</t>
+          <t>17/01/2002</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,30 +11570,30 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>22/10/2001</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,20 +11618,20 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Lana y Carne de la Patagonia Chile S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>05/03/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,30 +11666,30 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Lana y Carne de la Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/03/2001</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Complejo Bahía Azul</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,20 +11714,20 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Primavera</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,12 +11752,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Poliducto Catalina Sur - Gregorio</t>
+          <t>Complejo Bahía Azul</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -11767,15 +11767,15 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>15500</v>
+        <v>250</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,43 +11800,91 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
+          <t>Poliducto Catalina Sur - Gregorio</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>11/11/1998</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Primavera</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
           <t>Construcción Zona de Camping en Cerro Sombrero</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
         <is>
           <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
-      <c r="F239" t="n">
+      <c r="F240" t="n">
         <v>20</v>
       </c>
-      <c r="G239" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>20/06/1997</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I239" t="inlineStr">
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=819&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J239" t="inlineStr">
+      <c r="J240" t="inlineStr">
         <is>
           <t>Primavera</t>
         </is>

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J240"/>
+  <dimension ref="A1:J241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
+          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>750</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
+          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,11 +491,11 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
+          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,21 +539,21 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30/08/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Cabaña Oeste</t>
+          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>30/08/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
+          <t>Genérica Sub-Bloque Cabaña Oeste</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>750</v>
+        <v>220000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/06/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Invernada ZG-A</t>
+          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>514</v>
+        <v>750</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>07/06/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
+          <t>Línea de Flujo PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>12000</v>
+        <v>514</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>29/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
+          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,11 +779,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2620</v>
+        <v>12000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>29/04/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Trébol ZG-B</t>
+          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>250</v>
+        <v>2620</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
+          <t>Línea de Flujo PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,21 +875,21 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/11/2020</t>
+          <t>18/01/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,11 +1015,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>975</v>
+        <v>10</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>975</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>19/11/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13/10/2020</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
+          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,11 +1163,11 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/06/2020</t>
+          <t>13/10/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Estimulación hidráulica del pozo Koo x-1</t>
+          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>02/01/2020</t>
+          <t>10/06/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Producción del pozo Koo x-1</t>
+          <t>Estimulación hidráulica del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>760</v>
+        <v>1500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Rigby x-1</t>
+          <t>Producción del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>02/01/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Huillin x-1</t>
+          <t>Desarrollo del pozo Rigby x-1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1355,11 +1355,11 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2160</v>
+        <v>1760</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>27/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Koo x-1</t>
+          <t>Desarrollo del pozo Huillin x-1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>27/12/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
+          <t>Desarrollo del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6000</v>
+        <v>2160</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>04/12/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
+          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,11 +1499,11 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>213000</v>
+        <v>6000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>04/12/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Línea de Flujo Tres Lagos 110</t>
+          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,11 +1547,11 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>400</v>
+        <v>213000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/08/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
+          <t>Línea de Flujo Tres Lagos 110</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
+          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,21 +1643,21 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>213000</v>
+        <v>400</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>20/08/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1691,21 +1691,21 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>700</v>
+        <v>213000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/06/2019</t>
+          <t>05/08/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
+          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1739,11 +1739,11 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>44800</v>
+        <v>700</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/12/2018</t>
+          <t>20/06/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>600</v>
+        <v>44800</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
+          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,11 +1835,11 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>11/12/2018</t>
+          <t>18/12/2018</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
+          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,11 +1883,11 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>11/12/2018</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6 Líneas de Flujo en el Bloque Arenal</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,11 +1931,11 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>55</v>
+        <v>4000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/05/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>6 Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,11 +1979,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>14000</v>
+        <v>55</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>16/05/2018</t>
+          <t>18/05/2018</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,11 +2027,11 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15/03/2018</t>
+          <t>16/05/2018</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2075,21 +2075,21 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09/03/2018</t>
+          <t>15/03/2018</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,21 +2123,21 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>55</v>
+        <v>14000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19/02/2018</t>
+          <t>09/03/2018</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,11 +2171,11 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>186000</v>
+        <v>55</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13/12/2017</t>
+          <t>19/02/2018</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Tres Lagos</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>400</v>
+        <v>186000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>07/11/2017</t>
+          <t>13/12/2017</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5 Multipozos en el Bloque Arenal</t>
+          <t>Extracción de Áridos Tres Lagos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>52000</v>
+        <v>400</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>17/10/2017</t>
+          <t>07/11/2017</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>5 Multipozos en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,11 +2315,11 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>21000</v>
+        <v>52000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09/08/2017</t>
+          <t>17/10/2017</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Interconexión Líneas de Flujo</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,11 +2363,11 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>500</v>
+        <v>21000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>17/03/2017</t>
+          <t>09/08/2017</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>Interconexión Líneas de Flujo</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>22000</v>
+        <v>500</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Colector Barwick</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,21 +2459,21 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1500</v>
+        <v>22000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>17/02/2017</t>
+          <t>17/03/2017</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>Colector Barwick</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,21 +2507,21 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>42000</v>
+        <v>1500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>03/01/2017</t>
+          <t>17/02/2017</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,21 +2555,21 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1200</v>
+        <v>42000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>18/07/2016</t>
+          <t>03/01/2017</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,11 +2603,11 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>20000</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29/04/2016</t>
+          <t>18/07/2016</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,11 +2651,11 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>18/02/2016</t>
+          <t>29/04/2016</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
+          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,11 +2747,11 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>21000</v>
+        <v>1200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>18/02/2016</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,21 +2795,21 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>450</v>
+        <v>21000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,21 +2843,21 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
+          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,11 +2891,11 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,7 +2939,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7920</v>
+        <v>1200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,11 +2987,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>21000</v>
+        <v>7920</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
+          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,11 +3035,11 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>204000</v>
+        <v>21000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02/09/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
+          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2400</v>
+        <v>204000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
+          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,21 +3131,21 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>850</v>
+        <v>2400</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18/08/2015</t>
+          <t>02/09/2015</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>04/08/2015</t>
+          <t>18/08/2015</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>04/08/2015</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>7920</v>
+        <v>1600</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>20000</v>
+        <v>7920</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,21 +3419,21 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1600</v>
+        <v>20000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,21 +3467,21 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1144</v>
+        <v>1600</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>15/05/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
+          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,11 +3515,11 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>850</v>
+        <v>1144</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>15/05/2015</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
+          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
+          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
+          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,11 +3659,11 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
+          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
+          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3803,11 +3803,11 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>39600</v>
+        <v>1050</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,11 +3851,11 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>800</v>
+        <v>39600</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
+          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,11 +3899,11 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
+          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,11 +3947,11 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4043,11 +4043,11 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>43200</v>
+        <v>750</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09/12/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>55000</v>
+        <v>43200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>750</v>
+        <v>55000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>09/12/2014</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>980</v>
+        <v>750</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloque Arenal</t>
+          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>150000</v>
+        <v>980</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>06/11/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
+          <t>Genérica Sub Bloque Arenal</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>22500</v>
+        <v>150000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>06/11/2014</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4331,21 +4331,21 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>27/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>750</v>
+        <v>45000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>24/10/2014</t>
+          <t>27/10/2014</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Extracción y procesamiento de áridos Tafra</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>440</v>
+        <v>750</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>24/10/2014</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de áridos Tafra</t>
+          <t>Extracción y procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>29/08/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Bellavista Sur x-1</t>
+          <t>Extracción y Procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>26/08/2014</t>
+          <t>29/08/2014</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
+          <t>Desarrollo del pozo Bellavista Sur x-1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4571,11 +4571,11 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>75000</v>
+        <v>800</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>26/08/2014</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>25200</v>
+        <v>75000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
+          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>75000</v>
+        <v>25200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>15/07/2014</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4715,11 +4715,11 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>07/07/2014</t>
+          <t>15/07/2014</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>47500</v>
+        <v>45000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,11 +4811,11 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>52500</v>
+        <v>47500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>03/07/2014</t>
+          <t>07/07/2014</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>27000</v>
+        <v>52500</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>03/07/2014</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>27/06/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>27000</v>
+        <v>75000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>23/06/2014</t>
+          <t>27/06/2014</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5003,21 +5003,21 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>240</v>
+        <v>27000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>23/06/2014</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
+          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5051,11 +5051,11 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>16100</v>
+        <v>240</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>16/06/2014</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>11700</v>
+        <v>16100</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5147,11 +5147,11 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3600</v>
+        <v>11700</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11/06/2014</t>
+          <t>16/06/2014</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
+          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>75000</v>
+        <v>3600</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02/06/2014</t>
+          <t>11/06/2014</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Tanu x-1</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,11 +5243,11 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>800</v>
+        <v>75000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>28/05/2014</t>
+          <t>02/06/2014</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aneki x-1</t>
+          <t>Desarrollo del pozo Tanu x-1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aymi x-1</t>
+          <t>Desarrollo del pozo Aneki x-1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>22/05/2014</t>
+          <t>28/05/2014</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>Desarrollo del pozo Aymi x-1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>20/05/2014</t>
+          <t>22/05/2014</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
+          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,11 +5435,11 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>58800</v>
+        <v>500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>22/04/2014</t>
+          <t>20/05/2014</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Pantano Oeste x-1</t>
+          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>800</v>
+        <v>58800</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Keternen x-1</t>
+          <t>Desarrollo del pozo Pantano Oeste x-1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>17/04/2014</t>
+          <t>22/04/2014</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
+          <t>Desarrollo del pozo Keternen x-1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5579,11 +5579,11 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>976</v>
+        <v>800</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>17/04/2014</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
+          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1082</v>
+        <v>976</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5675,11 +5675,11 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>7000</v>
+        <v>1082</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>25/02/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
+          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5723,11 +5723,11 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>25/02/2014</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
+          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5771,11 +5771,11 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5819,7 +5819,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>19200</v>
+        <v>2400</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
+          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>800</v>
+        <v>19200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,11 +5915,11 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>03/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,11 +5963,11 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>03/12/2013</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,11 +6011,11 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>11200</v>
+        <v>1800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
+          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>16</v>
+        <v>11200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>24/09/2013</t>
+          <t>30/09/2013</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>6000</v>
+        <v>16</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>24/09/2013</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,7 +6155,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6203,11 +6203,11 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>37500</v>
+        <v>18000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,11 +6251,11 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>850</v>
+        <v>37500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>29/08/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6299,21 +6299,21 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>37500</v>
+        <v>850</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>26/07/2013</t>
+          <t>29/08/2013</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>6000</v>
+        <v>37500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6395,7 +6395,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,21 +6443,21 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2500</v>
+        <v>18000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>26/07/2013</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
+          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,21 +6491,21 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>14/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LYNCH V-1</t>
+          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,11 +6539,11 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>150</v>
+        <v>4000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>11/06/2013</t>
+          <t>14/06/2013</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
+          <t>LÍNEA DE FLUJO LYNCH V-1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,11 +6587,11 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>03/06/2013</t>
+          <t>11/06/2013</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
+          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,11 +6635,11 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>30/04/2013</t>
+          <t>03/06/2013</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Caracol B</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>25/04/2013</t>
+          <t>30/04/2013</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
+          <t>Perforación de Pozo Exploratorio Caracol B</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,11 +6731,11 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>19/04/2013</t>
+          <t>25/04/2013</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,11 +6779,11 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1155</v>
+        <v>2400</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>22/03/2013</t>
+          <t>19/04/2013</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
+          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,11 +6827,11 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1370</v>
+        <v>1155</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>22/03/2013</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
+          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,11 +6875,11 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2500</v>
+        <v>1370</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
+          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,11 +6923,11 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>15/02/2013</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
+          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6971,11 +6971,11 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>6600</v>
+        <v>1200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>30/11/2012</t>
+          <t>15/02/2013</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
+          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,11 +7019,11 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>30/11/2012</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
+          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,11 +7067,11 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
+          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,11 +7115,11 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>90000</v>
+        <v>5100</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>25/09/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
+          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,11 +7163,11 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>21/08/2012</t>
+          <t>25/09/2012</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
+          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,11 +7211,11 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>21/08/2012</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,11 +7259,11 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>174</v>
+        <v>2000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>26/06/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Manantiales</t>
+          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,11 +7307,11 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>9600</v>
+        <v>174</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>06/06/2012</t>
+          <t>26/06/2012</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
+          <t>Genérica Sub-Bloque Manantiales</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,11 +7355,11 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>60000</v>
+        <v>9600</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>24/04/2012</t>
+          <t>06/06/2012</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
+          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,11 +7403,11 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>420</v>
+        <v>60000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>09/04/2012</t>
+          <t>24/04/2012</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
+          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,11 +7451,11 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>05/04/2012</t>
+          <t>09/04/2012</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Geike A</t>
+          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7499,11 +7499,11 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2000</v>
+        <v>280</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>20/03/2012</t>
+          <t>05/04/2012</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
+          <t>Perforación de Pozo Exploratorio Geike A</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,11 +7547,11 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>710</v>
+        <v>2000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>25/01/2012</t>
+          <t>20/03/2012</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7595,11 +7595,11 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>30000</v>
+        <v>710</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>16/01/2012</t>
+          <t>25/01/2012</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
+          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7643,11 +7643,11 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2200</v>
+        <v>30000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>29/12/2011</t>
+          <t>16/01/2012</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
+          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7691,11 +7691,11 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>23/12/2011</t>
+          <t>29/12/2011</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
+          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7739,11 +7739,11 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>96000</v>
+        <v>1100</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>20/12/2011</t>
+          <t>23/12/2011</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
+          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7787,11 +7787,11 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1510</v>
+        <v>96000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>05/12/2011</t>
+          <t>20/12/2011</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7835,11 +7835,11 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2200</v>
+        <v>1510</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>05/12/2011</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
+          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7883,11 +7883,11 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>15000</v>
+        <v>2200</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
+          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,11 +7931,11 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>11/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
+          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7979,7 +7979,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8027,11 +8027,11 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>11/11/2011</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
+          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8075,11 +8075,11 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>06/09/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
+          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8123,11 +8123,11 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>28/07/2011</t>
+          <t>06/09/2011</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
+          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,11 +8171,11 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>18/07/2011</t>
+          <t>28/07/2011</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
+          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8219,11 +8219,11 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>07/06/2011</t>
+          <t>18/07/2011</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
+          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>06/06/2011</t>
+          <t>07/06/2011</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
+          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,11 +8315,11 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>31/05/2011</t>
+          <t>06/06/2011</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
+          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,11 +8363,11 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>3100</v>
+        <v>4000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>20/05/2011</t>
+          <t>31/05/2011</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
+          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>20/05/2011</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
+          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,21 +8459,21 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2250</v>
+        <v>3100</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>03/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,21 +8507,21 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1300</v>
+        <v>2250</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>26/01/2011</t>
+          <t>03/03/2011</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
+          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,21 +8555,21 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>13/12/2010</t>
+          <t>26/01/2011</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
+          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,11 +8603,11 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>13/12/2010</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
+          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8651,11 +8651,11 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>12/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
+          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>24/08/2010</t>
+          <t>12/10/2010</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
+          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8747,11 +8747,11 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>19/08/2010</t>
+          <t>24/08/2010</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
+          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8795,11 +8795,11 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>22/07/2010</t>
+          <t>19/08/2010</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
+          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,11 +8843,11 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1000</v>
+        <v>2250</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>20/07/2010</t>
+          <t>22/07/2010</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>12/07/2010</t>
+          <t>20/07/2010</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Perforación del Pozo Exploratorio Mataquito B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,11 +8939,11 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>16/06/2010</t>
+          <t>12/07/2010</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>Perforación del Pozo Exploratorio Mataquito B</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8987,11 +8987,11 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>16/06/2010</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
+          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9035,11 +9035,11 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9083,11 +9083,11 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,21 +9131,21 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
+          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9179,21 +9179,21 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
+          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,11 +9227,11 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>22/03/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Pozo de Exploración Manantiales Oeste B</t>
+          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,11 +9275,11 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>22/03/2010</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
+          <t>Pozo de Exploración Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>26/02/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
+          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9371,11 +9371,11 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>26/02/2010</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
+          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9419,11 +9419,11 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>04/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
+          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9467,11 +9467,11 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>20/11/2009</t>
+          <t>04/01/2010</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
+          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>20/11/2009</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
+          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9563,11 +9563,11 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>28/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
+          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9611,11 +9611,11 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>20/10/2009</t>
+          <t>28/10/2009</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
+          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9659,11 +9659,11 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>02/10/2009</t>
+          <t>20/10/2009</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
+          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9707,11 +9707,11 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>02/10/2009</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
+          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9755,11 +9755,11 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>18/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
+          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9803,11 +9803,11 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>52000</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>12/06/2009</t>
+          <t>18/06/2009</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
+          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9851,11 +9851,11 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>52000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>12/06/2009</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9903,17 +9903,17 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>19/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9947,21 +9947,21 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2346</v>
+        <v>2500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>19/12/2008</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
+          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9995,11 +9995,11 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>3200</v>
+        <v>2346</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
+          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10043,11 +10043,11 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>100</v>
+        <v>3200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
+          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,15 +10087,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Primavera</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>23/07/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
+          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,15 +10135,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Ilustre Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>30800</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>12/03/2008</t>
+          <t>23/07/2008</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10187,11 +10187,11 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>25200</v>
+        <v>30800</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>12/03/2008</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,15 +10231,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>21</v>
+        <v>25200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
+          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,15 +10279,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>13000</v>
+        <v>21</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,30 +10322,30 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,30 +10370,30 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,15 +10423,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Inversiones Polo Sur Ltda</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
+          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10479,17 +10479,17 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>24/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,30 +10514,30 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Inversiones Polo Sur Ltda</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>24/01/2007</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10575,17 +10575,17 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10667,7 +10667,7 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
+          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10715,11 +10715,11 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>22/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10763,11 +10763,11 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>26/10/2006</t>
+          <t>22/12/2006</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
+          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10811,11 +10811,11 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1800</v>
+        <v>65</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>28/08/2006</t>
+          <t>26/10/2006</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,25 +10855,25 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>28/08/2006</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10911,17 +10911,17 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,30 +10946,30 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,30 +10994,30 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>829</v>
+        <v>4000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>16/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,30 +11042,30 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>4000</v>
+        <v>829</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>16/03/2006</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,40 +11080,40 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>73200</v>
+        <v>4000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,12 +11128,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
+          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -11143,15 +11143,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Gabriel Patiño Kaufer</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>16000</v>
+        <v>73200</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>15/11/2004</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11199,17 +11199,17 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>15/11/2004</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,12 +11224,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Gasoducto Segundo Cruce</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -11239,25 +11239,25 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Gabriel Patiño Kaufer</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>25400</v>
+        <v>16000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>24/10/2003</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,12 +11272,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Gasoducto Segundo Cruce</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -11287,15 +11287,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>25400</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>24/10/2003</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,15 +11335,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>13/12/2002</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,12 +11368,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>25/06/2002</t>
+          <t>13/12/2002</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,12 +11416,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
+          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -11435,11 +11435,11 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>40</v>
+        <v>9500</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>18/06/2002</t>
+          <t>25/06/2002</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11483,7 +11483,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,12 +11512,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -11531,11 +11531,11 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4100</v>
+        <v>200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>17/01/2002</t>
+          <t>18/06/2002</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,12 +11560,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
+          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -11579,11 +11579,11 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>22/10/2001</t>
+          <t>17/01/2002</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,30 +11618,30 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>22/10/2001</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,20 +11666,20 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Lana y Carne de la Patagonia Chile S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>05/03/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,30 +11714,30 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Lana y Carne de la Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/03/2001</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Complejo Bahía Azul</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,20 +11762,20 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Primavera</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,12 +11800,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Poliducto Catalina Sur - Gregorio</t>
+          <t>Complejo Bahía Azul</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -11815,15 +11815,15 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>15500</v>
+        <v>250</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,43 +11848,91 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
+          <t>Poliducto Catalina Sur - Gregorio</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>11/11/1998</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Primavera</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
           <t>Construcción Zona de Camping en Cerro Sombrero</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
         <is>
           <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
-      <c r="F240" t="n">
+      <c r="F241" t="n">
         <v>20</v>
       </c>
-      <c r="G240" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>20/06/1997</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I240" t="inlineStr">
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=819&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J240" t="inlineStr">
+      <c r="J241" t="inlineStr">
         <is>
           <t>Primavera</t>
         </is>

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J241"/>
+  <dimension ref="A1:J242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
+          <t>Línea de Flujo PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12000</v>
+        <v>500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155653010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
+          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,11 +491,11 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>750</v>
+        <v>12000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
+          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
+          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,21 +587,21 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>30/08/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Cabaña Oeste</t>
+          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>30/08/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
+          <t>Genérica Sub-Bloque Cabaña Oeste</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>750</v>
+        <v>220000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/06/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Invernada ZG-A</t>
+          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>514</v>
+        <v>750</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>07/06/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
+          <t>Línea de Flujo PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,11 +779,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>12000</v>
+        <v>514</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>29/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
+          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2620</v>
+        <v>12000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>29/04/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Trébol ZG-B</t>
+          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>250</v>
+        <v>2620</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
+          <t>Línea de Flujo PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,21 +923,21 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/11/2020</t>
+          <t>18/01/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,11 +1063,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>975</v>
+        <v>10</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>975</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>19/11/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13/10/2020</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
+          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1211,11 +1211,11 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/06/2020</t>
+          <t>13/10/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Estimulación hidráulica del pozo Koo x-1</t>
+          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>02/01/2020</t>
+          <t>10/06/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Producción del pozo Koo x-1</t>
+          <t>Estimulación hidráulica del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>760</v>
+        <v>1500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Rigby x-1</t>
+          <t>Producción del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1355,11 +1355,11 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>02/01/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Huillin x-1</t>
+          <t>Desarrollo del pozo Rigby x-1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,11 +1403,11 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2160</v>
+        <v>1760</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Koo x-1</t>
+          <t>Desarrollo del pozo Huillin x-1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>27/12/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
+          <t>Desarrollo del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6000</v>
+        <v>2160</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>04/12/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
+          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,11 +1547,11 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>213000</v>
+        <v>6000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>04/12/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Línea de Flujo Tres Lagos 110</t>
+          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,11 +1595,11 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>400</v>
+        <v>213000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/08/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
+          <t>Línea de Flujo Tres Lagos 110</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
+          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1691,21 +1691,21 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>213000</v>
+        <v>400</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>20/08/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1739,21 +1739,21 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>700</v>
+        <v>213000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/06/2019</t>
+          <t>05/08/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
+          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,11 +1787,11 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>44800</v>
+        <v>700</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18/12/2018</t>
+          <t>20/06/2019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>600</v>
+        <v>44800</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
+          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,11 +1883,11 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>11/12/2018</t>
+          <t>18/12/2018</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
+          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,11 +1931,11 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>11/12/2018</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6 Líneas de Flujo en el Bloque Arenal</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,11 +1979,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>55</v>
+        <v>4000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/05/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>6 Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,11 +2027,11 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>14000</v>
+        <v>55</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>16/05/2018</t>
+          <t>18/05/2018</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2075,11 +2075,11 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/03/2018</t>
+          <t>16/05/2018</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,21 +2123,21 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09/03/2018</t>
+          <t>15/03/2018</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,21 +2171,21 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>55</v>
+        <v>14000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19/02/2018</t>
+          <t>09/03/2018</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,11 +2219,11 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>186000</v>
+        <v>55</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13/12/2017</t>
+          <t>19/02/2018</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Tres Lagos</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>400</v>
+        <v>186000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07/11/2017</t>
+          <t>13/12/2017</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5 Multipozos en el Bloque Arenal</t>
+          <t>Extracción de Áridos Tres Lagos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>52000</v>
+        <v>400</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>17/10/2017</t>
+          <t>07/11/2017</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>5 Multipozos en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,11 +2363,11 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>21000</v>
+        <v>52000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09/08/2017</t>
+          <t>17/10/2017</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Interconexión Líneas de Flujo</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,11 +2411,11 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>500</v>
+        <v>21000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>17/03/2017</t>
+          <t>09/08/2017</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>Interconexión Líneas de Flujo</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>22000</v>
+        <v>500</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Colector Barwick</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,21 +2507,21 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1500</v>
+        <v>22000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>17/02/2017</t>
+          <t>17/03/2017</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>Colector Barwick</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,21 +2555,21 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>42000</v>
+        <v>1500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>03/01/2017</t>
+          <t>17/02/2017</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,21 +2603,21 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1200</v>
+        <v>42000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>18/07/2016</t>
+          <t>03/01/2017</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,11 +2651,11 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>20000</v>
+        <v>1200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29/04/2016</t>
+          <t>18/07/2016</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,11 +2699,11 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>18/02/2016</t>
+          <t>29/04/2016</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
+          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,11 +2795,11 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>21000</v>
+        <v>1200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>18/02/2016</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,21 +2843,21 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>450</v>
+        <v>21000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,21 +2891,21 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
+          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,11 +2939,11 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>7920</v>
+        <v>1200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,11 +3035,11 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>21000</v>
+        <v>7920</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
+          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,11 +3083,11 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>204000</v>
+        <v>21000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>02/09/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
+          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2400</v>
+        <v>204000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
+          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,21 +3179,21 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>850</v>
+        <v>2400</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18/08/2015</t>
+          <t>02/09/2015</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>04/08/2015</t>
+          <t>18/08/2015</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>04/08/2015</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>7920</v>
+        <v>1600</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>20000</v>
+        <v>7920</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,21 +3467,21 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1600</v>
+        <v>20000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,21 +3515,21 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1144</v>
+        <v>1600</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15/05/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
+          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,11 +3563,11 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>850</v>
+        <v>1144</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>15/05/2015</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
+          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
+          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
+          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,11 +3707,11 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
+          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
+          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,11 +3851,11 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>39600</v>
+        <v>1050</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,11 +3899,11 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>800</v>
+        <v>39600</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
+          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,11 +3947,11 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
+          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,11 +3995,11 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4091,11 +4091,11 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>43200</v>
+        <v>750</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09/12/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>55000</v>
+        <v>43200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>750</v>
+        <v>55000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>09/12/2014</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>980</v>
+        <v>750</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloque Arenal</t>
+          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>150000</v>
+        <v>980</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>06/11/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
+          <t>Genérica Sub Bloque Arenal</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>22500</v>
+        <v>150000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>06/11/2014</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4379,21 +4379,21 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>27/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>750</v>
+        <v>45000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>24/10/2014</t>
+          <t>27/10/2014</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Extracción y procesamiento de áridos Tafra</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>440</v>
+        <v>750</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>24/10/2014</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de áridos Tafra</t>
+          <t>Extracción y procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>29/08/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Bellavista Sur x-1</t>
+          <t>Extracción y Procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>26/08/2014</t>
+          <t>29/08/2014</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
+          <t>Desarrollo del pozo Bellavista Sur x-1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4619,11 +4619,11 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>75000</v>
+        <v>800</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>26/08/2014</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>25200</v>
+        <v>75000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
+          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>75000</v>
+        <v>25200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15/07/2014</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,11 +4763,11 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>07/07/2014</t>
+          <t>15/07/2014</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>47500</v>
+        <v>45000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,11 +4859,11 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>52500</v>
+        <v>47500</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>03/07/2014</t>
+          <t>07/07/2014</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>27000</v>
+        <v>52500</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>03/07/2014</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>27/06/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>27000</v>
+        <v>75000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>23/06/2014</t>
+          <t>27/06/2014</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5051,21 +5051,21 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>240</v>
+        <v>27000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>23/06/2014</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
+          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5099,11 +5099,11 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>16100</v>
+        <v>240</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16/06/2014</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>11700</v>
+        <v>16100</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5195,11 +5195,11 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3600</v>
+        <v>11700</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>11/06/2014</t>
+          <t>16/06/2014</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
+          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>75000</v>
+        <v>3600</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02/06/2014</t>
+          <t>11/06/2014</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Tanu x-1</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5291,11 +5291,11 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>800</v>
+        <v>75000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>28/05/2014</t>
+          <t>02/06/2014</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aneki x-1</t>
+          <t>Desarrollo del pozo Tanu x-1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aymi x-1</t>
+          <t>Desarrollo del pozo Aneki x-1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>22/05/2014</t>
+          <t>28/05/2014</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>Desarrollo del pozo Aymi x-1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20/05/2014</t>
+          <t>22/05/2014</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
+          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5483,11 +5483,11 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>58800</v>
+        <v>500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>22/04/2014</t>
+          <t>20/05/2014</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Pantano Oeste x-1</t>
+          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>800</v>
+        <v>58800</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Keternen x-1</t>
+          <t>Desarrollo del pozo Pantano Oeste x-1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>17/04/2014</t>
+          <t>22/04/2014</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
+          <t>Desarrollo del pozo Keternen x-1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,11 +5627,11 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>976</v>
+        <v>800</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>17/04/2014</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
+          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1082</v>
+        <v>976</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5723,11 +5723,11 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>7000</v>
+        <v>1082</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>25/02/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
+          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5771,11 +5771,11 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>25/02/2014</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
+          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5819,11 +5819,11 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>19200</v>
+        <v>2400</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
+          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>800</v>
+        <v>19200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,11 +5963,11 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>03/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,11 +6011,11 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>03/12/2013</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6059,11 +6059,11 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>11200</v>
+        <v>1800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
+          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>16</v>
+        <v>11200</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>24/09/2013</t>
+          <t>30/09/2013</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>6000</v>
+        <v>16</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>24/09/2013</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,11 +6251,11 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>37500</v>
+        <v>18000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6299,11 +6299,11 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>850</v>
+        <v>37500</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>29/08/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6347,21 +6347,21 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>37500</v>
+        <v>850</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>26/07/2013</t>
+          <t>29/08/2013</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6395,7 +6395,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>6000</v>
+        <v>37500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,7 +6443,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,21 +6491,21 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2500</v>
+        <v>18000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>26/07/2013</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
+          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,21 +6539,21 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>14/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LYNCH V-1</t>
+          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,11 +6587,11 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>150</v>
+        <v>4000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>11/06/2013</t>
+          <t>14/06/2013</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
+          <t>LÍNEA DE FLUJO LYNCH V-1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,11 +6635,11 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>03/06/2013</t>
+          <t>11/06/2013</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
+          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,11 +6683,11 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>30/04/2013</t>
+          <t>03/06/2013</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Caracol B</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>25/04/2013</t>
+          <t>30/04/2013</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
+          <t>Perforación de Pozo Exploratorio Caracol B</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,11 +6779,11 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>19/04/2013</t>
+          <t>25/04/2013</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,11 +6827,11 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1155</v>
+        <v>2400</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>22/03/2013</t>
+          <t>19/04/2013</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
+          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,11 +6875,11 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1370</v>
+        <v>1155</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>22/03/2013</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
+          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,11 +6923,11 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2500</v>
+        <v>1370</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
+          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6971,11 +6971,11 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>15/02/2013</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
+          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,11 +7019,11 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>6600</v>
+        <v>1200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>30/11/2012</t>
+          <t>15/02/2013</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
+          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,11 +7067,11 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>30/11/2012</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
+          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,11 +7115,11 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
+          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,11 +7163,11 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>90000</v>
+        <v>5100</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>25/09/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
+          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,11 +7211,11 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>21/08/2012</t>
+          <t>25/09/2012</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
+          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,11 +7259,11 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>21/08/2012</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,11 +7307,11 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>174</v>
+        <v>2000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>26/06/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Manantiales</t>
+          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,11 +7355,11 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>9600</v>
+        <v>174</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>06/06/2012</t>
+          <t>26/06/2012</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
+          <t>Genérica Sub-Bloque Manantiales</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,11 +7403,11 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>60000</v>
+        <v>9600</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>24/04/2012</t>
+          <t>06/06/2012</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
+          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,11 +7451,11 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>420</v>
+        <v>60000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>09/04/2012</t>
+          <t>24/04/2012</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
+          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7499,11 +7499,11 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>05/04/2012</t>
+          <t>09/04/2012</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Geike A</t>
+          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,11 +7547,11 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2000</v>
+        <v>280</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>20/03/2012</t>
+          <t>05/04/2012</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
+          <t>Perforación de Pozo Exploratorio Geike A</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7595,11 +7595,11 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>710</v>
+        <v>2000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>25/01/2012</t>
+          <t>20/03/2012</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7643,11 +7643,11 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>30000</v>
+        <v>710</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>16/01/2012</t>
+          <t>25/01/2012</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
+          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7691,11 +7691,11 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2200</v>
+        <v>30000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>29/12/2011</t>
+          <t>16/01/2012</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
+          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7739,11 +7739,11 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>23/12/2011</t>
+          <t>29/12/2011</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
+          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7787,11 +7787,11 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>96000</v>
+        <v>1100</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>20/12/2011</t>
+          <t>23/12/2011</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
+          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7835,11 +7835,11 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1510</v>
+        <v>96000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>05/12/2011</t>
+          <t>20/12/2011</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7883,11 +7883,11 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>2200</v>
+        <v>1510</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>05/12/2011</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
+          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,11 +7931,11 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>15000</v>
+        <v>2200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
+          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7979,11 +7979,11 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>11/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
+          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8075,11 +8075,11 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>11/11/2011</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
+          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8123,11 +8123,11 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>06/09/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
+          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,11 +8171,11 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>28/07/2011</t>
+          <t>06/09/2011</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
+          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8219,11 +8219,11 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>18/07/2011</t>
+          <t>28/07/2011</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
+          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8267,11 +8267,11 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>07/06/2011</t>
+          <t>18/07/2011</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
+          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>06/06/2011</t>
+          <t>07/06/2011</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
+          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,11 +8363,11 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>31/05/2011</t>
+          <t>06/06/2011</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
+          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,11 +8411,11 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3100</v>
+        <v>4000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>20/05/2011</t>
+          <t>31/05/2011</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
+          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>20/05/2011</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
+          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,21 +8507,21 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>2250</v>
+        <v>3100</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>03/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,21 +8555,21 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1300</v>
+        <v>2250</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>26/01/2011</t>
+          <t>03/03/2011</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
+          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,21 +8603,21 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>13/12/2010</t>
+          <t>26/01/2011</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
+          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8651,11 +8651,11 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>13/12/2010</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
+          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,11 +8699,11 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>12/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
+          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>24/08/2010</t>
+          <t>12/10/2010</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
+          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8795,11 +8795,11 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>19/08/2010</t>
+          <t>24/08/2010</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
+          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,11 +8843,11 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>22/07/2010</t>
+          <t>19/08/2010</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
+          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8891,11 +8891,11 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1000</v>
+        <v>2250</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>20/07/2010</t>
+          <t>22/07/2010</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>12/07/2010</t>
+          <t>20/07/2010</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Perforación del Pozo Exploratorio Mataquito B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8987,11 +8987,11 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>16/06/2010</t>
+          <t>12/07/2010</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>Perforación del Pozo Exploratorio Mataquito B</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9035,11 +9035,11 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>16/06/2010</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
+          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9083,11 +9083,11 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,11 +9131,11 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9179,21 +9179,21 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
+          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,21 +9227,21 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
+          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,11 +9275,11 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>22/03/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Pozo de Exploración Manantiales Oeste B</t>
+          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9323,11 +9323,11 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>22/03/2010</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
+          <t>Pozo de Exploración Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>26/02/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
+          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9419,11 +9419,11 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>26/02/2010</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
+          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9467,11 +9467,11 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>04/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
+          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9515,11 +9515,11 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>20/11/2009</t>
+          <t>04/01/2010</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
+          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>20/11/2009</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
+          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9611,11 +9611,11 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>28/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
+          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9659,11 +9659,11 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>20/10/2009</t>
+          <t>28/10/2009</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
+          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9707,11 +9707,11 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>02/10/2009</t>
+          <t>20/10/2009</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
+          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9755,11 +9755,11 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>02/10/2009</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
+          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9803,11 +9803,11 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>18/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
+          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9851,11 +9851,11 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>52000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>12/06/2009</t>
+          <t>18/06/2009</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
+          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9899,11 +9899,11 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>52000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>12/06/2009</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9951,17 +9951,17 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>19/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9995,21 +9995,21 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2346</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>19/12/2008</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
+          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10043,11 +10043,11 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>3200</v>
+        <v>2346</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
+          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10091,11 +10091,11 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>100</v>
+        <v>3200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
+          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,15 +10135,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Primavera</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>23/07/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
+          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,15 +10183,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Ilustre Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>30800</v>
+        <v>0</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>12/03/2008</t>
+          <t>23/07/2008</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10235,11 +10235,11 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>25200</v>
+        <v>30800</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>12/03/2008</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,15 +10279,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>21</v>
+        <v>25200</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
+          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,15 +10327,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>13000</v>
+        <v>21</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,30 +10370,30 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,30 +10418,30 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,15 +10471,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Inversiones Polo Sur Ltda</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
+          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10527,17 +10527,17 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>24/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,30 +10562,30 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Inversiones Polo Sur Ltda</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>24/01/2007</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10623,17 +10623,17 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10715,7 +10715,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
+          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10763,11 +10763,11 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>22/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10811,11 +10811,11 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>26/10/2006</t>
+          <t>22/12/2006</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
+          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10859,11 +10859,11 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1800</v>
+        <v>65</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>28/08/2006</t>
+          <t>26/10/2006</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,25 +10903,25 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>28/08/2006</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10959,17 +10959,17 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,30 +10994,30 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,30 +11042,30 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>829</v>
+        <v>4000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>16/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,30 +11090,30 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4000</v>
+        <v>829</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>16/03/2006</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,40 +11128,40 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>73200</v>
+        <v>4000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,12 +11176,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
+          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -11191,15 +11191,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Gabriel Patiño Kaufer</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>16000</v>
+        <v>73200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>15/11/2004</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11247,17 +11247,17 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>15/11/2004</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,12 +11272,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Gasoducto Segundo Cruce</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -11287,25 +11287,25 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Gabriel Patiño Kaufer</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>25400</v>
+        <v>16000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>24/10/2003</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,12 +11320,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Gasoducto Segundo Cruce</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -11335,15 +11335,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>25400</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>24/10/2003</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,15 +11383,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>13/12/2002</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,12 +11416,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -11439,7 +11439,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>25/06/2002</t>
+          <t>13/12/2002</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,12 +11464,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
+          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -11483,11 +11483,11 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>40</v>
+        <v>9500</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>18/06/2002</t>
+          <t>25/06/2002</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11531,7 +11531,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,12 +11560,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -11579,11 +11579,11 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4100</v>
+        <v>200</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>17/01/2002</t>
+          <t>18/06/2002</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,12 +11608,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
+          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -11627,11 +11627,11 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>22/10/2001</t>
+          <t>17/01/2002</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,30 +11666,30 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>22/10/2001</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,20 +11714,20 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Lana y Carne de la Patagonia Chile S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>05/03/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,30 +11762,30 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Lana y Carne de la Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/03/2001</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Complejo Bahía Azul</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,20 +11810,20 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Primavera</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,12 +11848,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Poliducto Catalina Sur - Gregorio</t>
+          <t>Complejo Bahía Azul</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -11863,15 +11863,15 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>15500</v>
+        <v>250</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,43 +11896,91 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
+          <t>Poliducto Catalina Sur - Gregorio</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>11/11/1998</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Primavera</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
           <t>Construcción Zona de Camping en Cerro Sombrero</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
         <is>
           <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
-      <c r="F241" t="n">
+      <c r="F242" t="n">
         <v>20</v>
       </c>
-      <c r="G241" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>20/06/1997</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I241" t="inlineStr">
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=819&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J241" t="inlineStr">
+      <c r="J242" t="inlineStr">
         <is>
           <t>Primavera</t>
         </is>

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J242"/>
+  <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Rancho Grande ZG-A</t>
+          <t>Construcción de Colector de 14, Nudo Bahía Felipe a Nudo Chorrillo Cortado</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>17/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155653010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156296060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
+          <t>Línea de Flujo PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,11 +491,11 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12000</v>
+        <v>500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155653010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
+          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>750</v>
+        <v>12000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
+          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,21 +587,21 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
+          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30/08/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Cabaña Oeste</t>
+          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>30/08/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
+          <t>Genérica Sub-Bloque Cabaña Oeste</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>750</v>
+        <v>220000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/06/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Invernada ZG-A</t>
+          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,11 +779,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>514</v>
+        <v>750</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>07/06/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
+          <t>Línea de Flujo PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>12000</v>
+        <v>514</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>29/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
+          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2620</v>
+        <v>12000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>29/04/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Trébol ZG-B</t>
+          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,11 +923,11 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>250</v>
+        <v>2620</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
+          <t>Línea de Flujo PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19/11/2020</t>
+          <t>18/01/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>975</v>
+        <v>10</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>975</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>19/11/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/10/2020</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
+          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/06/2020</t>
+          <t>13/10/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Estimulación hidráulica del pozo Koo x-1</t>
+          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>02/01/2020</t>
+          <t>10/06/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Producción del pozo Koo x-1</t>
+          <t>Estimulación hidráulica del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>760</v>
+        <v>1500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Rigby x-1</t>
+          <t>Producción del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,11 +1403,11 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>02/01/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Huillin x-1</t>
+          <t>Desarrollo del pozo Rigby x-1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,11 +1451,11 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2160</v>
+        <v>1760</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>27/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Koo x-1</t>
+          <t>Desarrollo del pozo Huillin x-1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>27/12/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
+          <t>Desarrollo del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6000</v>
+        <v>2160</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>04/12/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
+          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,11 +1595,11 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>213000</v>
+        <v>6000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>04/12/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Línea de Flujo Tres Lagos 110</t>
+          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,11 +1643,11 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>400</v>
+        <v>213000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/08/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
+          <t>Línea de Flujo Tres Lagos 110</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
+          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1739,21 +1739,21 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>213000</v>
+        <v>400</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>20/08/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,21 +1787,21 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>700</v>
+        <v>213000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/06/2019</t>
+          <t>05/08/2019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
+          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,11 +1835,11 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>44800</v>
+        <v>700</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18/12/2018</t>
+          <t>20/06/2019</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>600</v>
+        <v>44800</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
+          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,11 +1931,11 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11/12/2018</t>
+          <t>18/12/2018</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
+          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,11 +1979,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>11/12/2018</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6 Líneas de Flujo en el Bloque Arenal</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,11 +2027,11 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>55</v>
+        <v>4000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/05/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>6 Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2075,11 +2075,11 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>14000</v>
+        <v>55</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>16/05/2018</t>
+          <t>18/05/2018</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,11 +2123,11 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/03/2018</t>
+          <t>16/05/2018</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,21 +2171,21 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09/03/2018</t>
+          <t>15/03/2018</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,21 +2219,21 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>55</v>
+        <v>14000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/02/2018</t>
+          <t>09/03/2018</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>186000</v>
+        <v>55</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13/12/2017</t>
+          <t>19/02/2018</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Tres Lagos</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>400</v>
+        <v>186000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>07/11/2017</t>
+          <t>13/12/2017</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5 Multipozos en el Bloque Arenal</t>
+          <t>Extracción de Áridos Tres Lagos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>52000</v>
+        <v>400</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>17/10/2017</t>
+          <t>07/11/2017</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>5 Multipozos en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,11 +2411,11 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>21000</v>
+        <v>52000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09/08/2017</t>
+          <t>17/10/2017</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Interconexión Líneas de Flujo</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,11 +2459,11 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>500</v>
+        <v>21000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>17/03/2017</t>
+          <t>09/08/2017</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>Interconexión Líneas de Flujo</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>22000</v>
+        <v>500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Colector Barwick</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,21 +2555,21 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1500</v>
+        <v>22000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>17/02/2017</t>
+          <t>17/03/2017</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>Colector Barwick</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,21 +2603,21 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>42000</v>
+        <v>1500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>03/01/2017</t>
+          <t>17/02/2017</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,21 +2651,21 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1200</v>
+        <v>42000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>18/07/2016</t>
+          <t>03/01/2017</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,11 +2699,11 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>20000</v>
+        <v>1200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29/04/2016</t>
+          <t>18/07/2016</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,11 +2747,11 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>18/02/2016</t>
+          <t>29/04/2016</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
+          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,11 +2843,11 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>21000</v>
+        <v>1200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>18/02/2016</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,21 +2891,21 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>450</v>
+        <v>21000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,21 +2939,21 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
+          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,11 +2987,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>7920</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,11 +3083,11 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>21000</v>
+        <v>7920</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
+          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,11 +3131,11 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>204000</v>
+        <v>21000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>02/09/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
+          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2400</v>
+        <v>204000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
+          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,21 +3227,21 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>850</v>
+        <v>2400</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>18/08/2015</t>
+          <t>02/09/2015</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>04/08/2015</t>
+          <t>18/08/2015</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>04/08/2015</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>7920</v>
+        <v>1600</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>20000</v>
+        <v>7920</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,21 +3515,21 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1600</v>
+        <v>20000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,21 +3563,21 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1144</v>
+        <v>1600</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15/05/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
+          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3611,11 +3611,11 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>850</v>
+        <v>1144</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>15/05/2015</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
+          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
+          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
+          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3755,11 +3755,11 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
+          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
+          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,11 +3899,11 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>39600</v>
+        <v>1050</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,11 +3947,11 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>800</v>
+        <v>39600</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
+          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,11 +3995,11 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
+          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4043,11 +4043,11 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4139,11 +4139,11 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>43200</v>
+        <v>750</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09/12/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>55000</v>
+        <v>43200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>750</v>
+        <v>55000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>09/12/2014</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>980</v>
+        <v>750</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloque Arenal</t>
+          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>150000</v>
+        <v>980</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>06/11/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
+          <t>Genérica Sub Bloque Arenal</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>22500</v>
+        <v>150000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>06/11/2014</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4427,21 +4427,21 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>27/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>750</v>
+        <v>45000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>24/10/2014</t>
+          <t>27/10/2014</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Extracción y procesamiento de áridos Tafra</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>440</v>
+        <v>750</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>24/10/2014</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de áridos Tafra</t>
+          <t>Extracción y procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>29/08/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Bellavista Sur x-1</t>
+          <t>Extracción y Procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>26/08/2014</t>
+          <t>29/08/2014</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
+          <t>Desarrollo del pozo Bellavista Sur x-1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4667,11 +4667,11 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>75000</v>
+        <v>800</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>26/08/2014</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>25200</v>
+        <v>75000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
+          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>75000</v>
+        <v>25200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>15/07/2014</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,11 +4811,11 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/07/2014</t>
+          <t>15/07/2014</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>47500</v>
+        <v>45000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4907,11 +4907,11 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>52500</v>
+        <v>47500</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>03/07/2014</t>
+          <t>07/07/2014</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>27000</v>
+        <v>52500</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>03/07/2014</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>27/06/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>27000</v>
+        <v>75000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>23/06/2014</t>
+          <t>27/06/2014</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5099,21 +5099,21 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>240</v>
+        <v>27000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>23/06/2014</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
+          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5147,11 +5147,11 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>16100</v>
+        <v>240</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>16/06/2014</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5195,7 +5195,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>11700</v>
+        <v>16100</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,11 +5243,11 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3600</v>
+        <v>11700</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>11/06/2014</t>
+          <t>16/06/2014</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
+          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>75000</v>
+        <v>3600</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>02/06/2014</t>
+          <t>11/06/2014</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Tanu x-1</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5339,11 +5339,11 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>800</v>
+        <v>75000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>28/05/2014</t>
+          <t>02/06/2014</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aneki x-1</t>
+          <t>Desarrollo del pozo Tanu x-1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aymi x-1</t>
+          <t>Desarrollo del pozo Aneki x-1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>22/05/2014</t>
+          <t>28/05/2014</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>Desarrollo del pozo Aymi x-1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20/05/2014</t>
+          <t>22/05/2014</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
+          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5531,11 +5531,11 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>58800</v>
+        <v>500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>22/04/2014</t>
+          <t>20/05/2014</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Pantano Oeste x-1</t>
+          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>800</v>
+        <v>58800</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Keternen x-1</t>
+          <t>Desarrollo del pozo Pantano Oeste x-1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>17/04/2014</t>
+          <t>22/04/2014</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
+          <t>Desarrollo del pozo Keternen x-1</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5675,11 +5675,11 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>976</v>
+        <v>800</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>17/04/2014</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
+          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1082</v>
+        <v>976</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5771,11 +5771,11 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>7000</v>
+        <v>1082</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>25/02/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
+          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5819,11 +5819,11 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>25/02/2014</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
+          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5867,11 +5867,11 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>19200</v>
+        <v>2400</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
+          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>800</v>
+        <v>19200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,11 +6011,11 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>03/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6059,11 +6059,11 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>03/12/2013</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,11 +6107,11 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>11200</v>
+        <v>1800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
+          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>16</v>
+        <v>11200</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>24/09/2013</t>
+          <t>30/09/2013</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>6000</v>
+        <v>16</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>24/09/2013</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6299,11 +6299,11 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>37500</v>
+        <v>18000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6347,11 +6347,11 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>850</v>
+        <v>37500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>29/08/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6395,21 +6395,21 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>37500</v>
+        <v>850</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>26/07/2013</t>
+          <t>29/08/2013</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,7 +6443,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>6000</v>
+        <v>37500</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,21 +6539,21 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2500</v>
+        <v>18000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>26/07/2013</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
+          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,21 +6587,21 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>14/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LYNCH V-1</t>
+          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,11 +6635,11 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>150</v>
+        <v>4000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>11/06/2013</t>
+          <t>14/06/2013</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
+          <t>LÍNEA DE FLUJO LYNCH V-1</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,11 +6683,11 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>03/06/2013</t>
+          <t>11/06/2013</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
+          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,11 +6731,11 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>30/04/2013</t>
+          <t>03/06/2013</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Caracol B</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>25/04/2013</t>
+          <t>30/04/2013</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
+          <t>Perforación de Pozo Exploratorio Caracol B</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,11 +6827,11 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>19/04/2013</t>
+          <t>25/04/2013</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,11 +6875,11 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1155</v>
+        <v>2400</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>22/03/2013</t>
+          <t>19/04/2013</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
+          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,11 +6923,11 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1370</v>
+        <v>1155</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>22/03/2013</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
+          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6971,11 +6971,11 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2500</v>
+        <v>1370</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
+          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,11 +7019,11 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>15/02/2013</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
+          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,11 +7067,11 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>6600</v>
+        <v>1200</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>30/11/2012</t>
+          <t>15/02/2013</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
+          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,11 +7115,11 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>30/11/2012</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
+          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,11 +7163,11 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
+          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,11 +7211,11 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>90000</v>
+        <v>5100</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>25/09/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
+          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,11 +7259,11 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>21/08/2012</t>
+          <t>25/09/2012</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
+          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,11 +7307,11 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>21/08/2012</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,11 +7355,11 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>174</v>
+        <v>2000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>26/06/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Manantiales</t>
+          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,11 +7403,11 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>9600</v>
+        <v>174</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>06/06/2012</t>
+          <t>26/06/2012</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
+          <t>Genérica Sub-Bloque Manantiales</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,11 +7451,11 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>60000</v>
+        <v>9600</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>24/04/2012</t>
+          <t>06/06/2012</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
+          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7499,11 +7499,11 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>420</v>
+        <v>60000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>09/04/2012</t>
+          <t>24/04/2012</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
+          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,11 +7547,11 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>05/04/2012</t>
+          <t>09/04/2012</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Geike A</t>
+          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7595,11 +7595,11 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2000</v>
+        <v>280</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>20/03/2012</t>
+          <t>05/04/2012</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
+          <t>Perforación de Pozo Exploratorio Geike A</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7643,11 +7643,11 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>710</v>
+        <v>2000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>25/01/2012</t>
+          <t>20/03/2012</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7691,11 +7691,11 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>30000</v>
+        <v>710</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>16/01/2012</t>
+          <t>25/01/2012</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
+          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7739,11 +7739,11 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2200</v>
+        <v>30000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>29/12/2011</t>
+          <t>16/01/2012</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
+          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7787,11 +7787,11 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>23/12/2011</t>
+          <t>29/12/2011</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
+          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7835,11 +7835,11 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>96000</v>
+        <v>1100</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>20/12/2011</t>
+          <t>23/12/2011</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
+          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7883,11 +7883,11 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1510</v>
+        <v>96000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>05/12/2011</t>
+          <t>20/12/2011</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,11 +7931,11 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2200</v>
+        <v>1510</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>05/12/2011</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
+          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7979,11 +7979,11 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>15000</v>
+        <v>2200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
+          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8027,11 +8027,11 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>11/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
+          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8075,7 +8075,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8123,11 +8123,11 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>11/11/2011</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
+          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,11 +8171,11 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>06/09/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
+          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8219,11 +8219,11 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>28/07/2011</t>
+          <t>06/09/2011</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
+          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8267,11 +8267,11 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>18/07/2011</t>
+          <t>28/07/2011</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
+          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,11 +8315,11 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>07/06/2011</t>
+          <t>18/07/2011</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
+          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>06/06/2011</t>
+          <t>07/06/2011</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
+          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,11 +8411,11 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>31/05/2011</t>
+          <t>06/06/2011</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
+          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,11 +8459,11 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>3100</v>
+        <v>4000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>20/05/2011</t>
+          <t>31/05/2011</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
+          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>20/05/2011</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
+          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,21 +8555,21 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2250</v>
+        <v>3100</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>03/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,21 +8603,21 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1300</v>
+        <v>2250</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>26/01/2011</t>
+          <t>03/03/2011</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
+          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8651,21 +8651,21 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>13/12/2010</t>
+          <t>26/01/2011</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
+          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,11 +8699,11 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>13/12/2010</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
+          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8747,11 +8747,11 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>12/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
+          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>24/08/2010</t>
+          <t>12/10/2010</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
+          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,11 +8843,11 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>19/08/2010</t>
+          <t>24/08/2010</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
+          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8891,11 +8891,11 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>22/07/2010</t>
+          <t>19/08/2010</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
+          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,11 +8939,11 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1000</v>
+        <v>2250</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>20/07/2010</t>
+          <t>22/07/2010</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>12/07/2010</t>
+          <t>20/07/2010</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Perforación del Pozo Exploratorio Mataquito B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9035,11 +9035,11 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>16/06/2010</t>
+          <t>12/07/2010</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>Perforación del Pozo Exploratorio Mataquito B</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9083,11 +9083,11 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>16/06/2010</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
+          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,11 +9131,11 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9179,11 +9179,11 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,21 +9227,21 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
+          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,21 +9275,21 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
+          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9323,11 +9323,11 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>22/03/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Pozo de Exploración Manantiales Oeste B</t>
+          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9371,11 +9371,11 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>22/03/2010</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
+          <t>Pozo de Exploración Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>26/02/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
+          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9467,11 +9467,11 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>26/02/2010</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
+          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9515,11 +9515,11 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>04/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
+          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9563,11 +9563,11 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>20/11/2009</t>
+          <t>04/01/2010</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
+          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>20/11/2009</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
+          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9659,11 +9659,11 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>28/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
+          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9707,11 +9707,11 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>20/10/2009</t>
+          <t>28/10/2009</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
+          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9755,11 +9755,11 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>02/10/2009</t>
+          <t>20/10/2009</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
+          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9803,11 +9803,11 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>02/10/2009</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
+          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9851,11 +9851,11 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>18/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
+          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9899,11 +9899,11 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>52000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>12/06/2009</t>
+          <t>18/06/2009</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
+          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9947,11 +9947,11 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2500</v>
+        <v>52000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>12/06/2009</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9999,17 +9999,17 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>19/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10043,21 +10043,21 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2346</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>19/12/2008</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
+          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10091,11 +10091,11 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>3200</v>
+        <v>2346</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
+          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10139,11 +10139,11 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>100</v>
+        <v>3200</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
+          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,15 +10183,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Primavera</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>23/07/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
+          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,15 +10231,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Ilustre Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>30800</v>
+        <v>0</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>12/03/2008</t>
+          <t>23/07/2008</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10283,11 +10283,11 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>25200</v>
+        <v>30800</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>12/03/2008</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,15 +10327,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>21</v>
+        <v>25200</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
+          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,15 +10375,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>13000</v>
+        <v>21</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,30 +10418,30 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,30 +10466,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,15 +10519,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Inversiones Polo Sur Ltda</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
+          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10575,17 +10575,17 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>24/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,30 +10610,30 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Inversiones Polo Sur Ltda</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>24/01/2007</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10671,17 +10671,17 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10763,7 +10763,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
+          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10811,11 +10811,11 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>22/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10859,11 +10859,11 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>26/10/2006</t>
+          <t>22/12/2006</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
+          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10907,11 +10907,11 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1800</v>
+        <v>65</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>28/08/2006</t>
+          <t>26/10/2006</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,25 +10951,25 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>28/08/2006</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11007,17 +11007,17 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,30 +11042,30 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,30 +11090,30 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>829</v>
+        <v>4000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>16/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,30 +11138,30 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>4000</v>
+        <v>829</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>16/03/2006</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,40 +11176,40 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>73200</v>
+        <v>4000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,12 +11224,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
+          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -11239,15 +11239,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Gabriel Patiño Kaufer</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>16000</v>
+        <v>73200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>15/11/2004</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11295,17 +11295,17 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>15/11/2004</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,12 +11320,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Gasoducto Segundo Cruce</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -11335,25 +11335,25 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Gabriel Patiño Kaufer</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>25400</v>
+        <v>16000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>24/10/2003</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,12 +11368,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Gasoducto Segundo Cruce</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -11383,15 +11383,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>25400</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>24/10/2003</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,15 +11431,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>13/12/2002</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,12 +11464,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -11487,7 +11487,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>25/06/2002</t>
+          <t>13/12/2002</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,12 +11512,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
+          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -11531,11 +11531,11 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>40</v>
+        <v>9500</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>18/06/2002</t>
+          <t>25/06/2002</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11579,7 +11579,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,12 +11608,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -11627,11 +11627,11 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>4100</v>
+        <v>200</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>17/01/2002</t>
+          <t>18/06/2002</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,12 +11656,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
+          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -11675,11 +11675,11 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>22/10/2001</t>
+          <t>17/01/2002</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,30 +11714,30 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>22/10/2001</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,20 +11762,20 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Lana y Carne de la Patagonia Chile S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>05/03/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,30 +11810,30 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Lana y Carne de la Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/03/2001</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Complejo Bahía Azul</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,20 +11858,20 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Primavera</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,12 +11896,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Poliducto Catalina Sur - Gregorio</t>
+          <t>Complejo Bahía Azul</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -11911,15 +11911,15 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>15500</v>
+        <v>250</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,43 +11944,91 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
+          <t>Poliducto Catalina Sur - Gregorio</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>11/11/1998</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Primavera</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
           <t>Construcción Zona de Camping en Cerro Sombrero</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
         <is>
           <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
-      <c r="F242" t="n">
+      <c r="F243" t="n">
         <v>20</v>
       </c>
-      <c r="G242" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>20/06/1997</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I242" t="inlineStr">
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=819&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J242" t="inlineStr">
+      <c r="J243" t="inlineStr">
         <is>
           <t>Primavera</t>
         </is>

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J243"/>
+  <dimension ref="A1:J245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Construcción de Colector de 14, Nudo Bahía Felipe a Nudo Chorrillo Cortado</t>
+          <t>Ductos para el Transporte de Agua de Formación en Sector de Tres Lagos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/06/2022</t>
+          <t>18/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156296060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156502281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Rancho Grande ZG-A</t>
+          <t>Oleoducto Golondrina-Cullen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,21 +491,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>18/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155653010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156499977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
+          <t>Construcción de Colector de 14, Nudo Bahía Felipe a Nudo Chorrillo Cortado</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12000</v>
+        <v>900</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156296060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
+          <t>Línea de Flujo PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155653010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
+          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,21 +635,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
+          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,21 +683,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12000</v>
+        <v>750</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>30/08/2021</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Cabaña Oeste</t>
+          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>220000</v>
+        <v>1000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
+          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,11 +779,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>750</v>
+        <v>12000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/06/2021</t>
+          <t>30/08/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Invernada ZG-A</t>
+          <t>Genérica Sub-Bloque Cabaña Oeste</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>514</v>
+        <v>220000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
+          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12000</v>
+        <v>750</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>29/04/2021</t>
+          <t>07/06/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
+          <t>Línea de Flujo PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,11 +923,11 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2620</v>
+        <v>514</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Trébol ZG-B</t>
+          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>29/04/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
+          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>50000</v>
+        <v>2620</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
+          <t>Línea de Flujo PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,21 +1067,21 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18/01/2021</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19/11/2020</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
+          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,21 +1163,21 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>975</v>
+        <v>50000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19/11/2020</t>
+          <t>18/01/2021</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>19/11/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
+          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6000</v>
+        <v>975</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13/10/2020</t>
+          <t>19/11/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>15000</v>
+        <v>10</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/06/2020</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Estimulación hidráulica del pozo Koo x-1</t>
+          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>02/01/2020</t>
+          <t>13/10/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Producción del pozo Koo x-1</t>
+          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>760</v>
+        <v>15000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>02/01/2020</t>
+          <t>10/06/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Rigby x-1</t>
+          <t>Estimulación hidráulica del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,11 +1451,11 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1760</v>
+        <v>1500</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>02/01/2020</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Huillin x-1</t>
+          <t>Producción del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,11 +1499,11 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2160</v>
+        <v>760</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>27/12/2019</t>
+          <t>02/01/2020</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Koo x-1</t>
+          <t>Desarrollo del pozo Rigby x-1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,21 +1547,21 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2160</v>
+        <v>1760</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
+          <t>Desarrollo del pozo Huillin x-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6000</v>
+        <v>2160</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>04/12/2019</t>
+          <t>27/12/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
+          <t>Desarrollo del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>213000</v>
+        <v>2160</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Línea de Flujo Tres Lagos 110</t>
+          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1691,11 +1691,11 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>400</v>
+        <v>6000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/08/2019</t>
+          <t>04/12/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
+          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1739,11 +1739,11 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>400</v>
+        <v>213000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/08/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
+          <t>Línea de Flujo Tres Lagos 110</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,21 +1787,21 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>213000</v>
+        <v>400</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>20/08/2019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
+          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,11 +1835,11 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/06/2019</t>
+          <t>20/08/2019</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,21 +1883,21 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>44800</v>
+        <v>213000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/12/2018</t>
+          <t>05/08/2019</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
+          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,11 +1931,11 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/12/2018</t>
+          <t>20/06/2019</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
+          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,11 +1979,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6000</v>
+        <v>44800</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11/12/2018</t>
+          <t>18/12/2018</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
+          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,11 +2027,11 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>18/12/2018</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6 Líneas de Flujo en el Bloque Arenal</t>
+          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2075,11 +2075,11 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>55</v>
+        <v>6000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18/05/2018</t>
+          <t>11/12/2018</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,11 +2123,11 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>16/05/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
+          <t>6 Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,11 +2171,11 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>8000</v>
+        <v>55</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/03/2018</t>
+          <t>18/05/2018</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/03/2018</t>
+          <t>16/05/2018</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>55</v>
+        <v>8000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19/02/2018</t>
+          <t>15/03/2018</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,21 +2315,21 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>186000</v>
+        <v>14000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13/12/2017</t>
+          <t>09/03/2018</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Tres Lagos</t>
+          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>400</v>
+        <v>55</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>07/11/2017</t>
+          <t>19/02/2018</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5 Multipozos en el Bloque Arenal</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,11 +2411,11 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>52000</v>
+        <v>186000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>17/10/2017</t>
+          <t>13/12/2017</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>Extracción de Áridos Tres Lagos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>21000</v>
+        <v>400</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/08/2017</t>
+          <t>07/11/2017</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Interconexión Líneas de Flujo</t>
+          <t>5 Multipozos en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,11 +2507,11 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>500</v>
+        <v>52000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>17/03/2017</t>
+          <t>17/10/2017</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,21 +2555,21 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>17/03/2017</t>
+          <t>09/08/2017</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Colector Barwick</t>
+          <t>Interconexión Líneas de Flujo</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,11 +2603,11 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17/02/2017</t>
+          <t>17/03/2017</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,21 +2651,21 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>03/01/2017</t>
+          <t>17/03/2017</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
+          <t>Colector Barwick</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,11 +2699,11 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>18/07/2016</t>
+          <t>17/02/2017</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,21 +2747,21 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>29/04/2016</t>
+          <t>03/01/2017</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,11 +2795,11 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>18/02/2016</t>
+          <t>18/07/2016</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
+          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,11 +2843,11 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1200</v>
+        <v>20000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18/02/2016</t>
+          <t>29/04/2016</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,11 +2891,11 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>21000</v>
+        <v>450</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>18/02/2016</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,21 +2939,21 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>18/02/2016</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
+          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,11 +2987,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>21000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,21 +3035,21 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,11 +3083,11 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>7920</v>
+        <v>250</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,11 +3131,11 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>21000</v>
+        <v>1200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,11 +3179,11 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>204000</v>
+        <v>7920</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>02/09/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
+          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,21 +3227,21 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2400</v>
+        <v>21000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>02/09/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
+          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,11 +3275,11 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>850</v>
+        <v>204000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>18/08/2015</t>
+          <t>02/09/2015</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,21 +3323,21 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>18/08/2015</t>
+          <t>02/09/2015</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>04/08/2015</t>
+          <t>18/08/2015</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,11 +3419,11 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>18/08/2015</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>7920</v>
+        <v>2000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>04/08/2015</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>20000</v>
+        <v>1600</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,11 +3563,11 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1600</v>
+        <v>7920</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
+          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3611,11 +3611,11 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1144</v>
+        <v>20000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15/05/2015</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,21 +3659,21 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>850</v>
+        <v>1600</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
+          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,11 +3707,11 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>600</v>
+        <v>1144</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>15/05/2015</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
+          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
+          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3803,11 +3803,11 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
+          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,11 +3851,11 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
+          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1050</v>
+        <v>2500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,11 +3947,11 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>39600</v>
+        <v>500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,11 +3995,11 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4043,11 +4043,11 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>240</v>
+        <v>39600</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
+          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4091,11 +4091,11 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4139,11 +4139,11 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>750</v>
+        <v>240</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
+          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4187,11 +4187,11 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>43200</v>
+        <v>600</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09/12/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>55000</v>
+        <v>750</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09/12/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4283,21 +4283,21 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>750</v>
+        <v>43200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>09/12/2014</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
+          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4331,11 +4331,11 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>980</v>
+        <v>55000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>09/12/2014</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4379,21 +4379,21 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>150000</v>
+        <v>750</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>06/11/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
+          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4427,11 +4427,11 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>22500</v>
+        <v>980</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
+          <t>Genérica Sub Bloque Arenal</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>45000</v>
+        <v>150000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>27/10/2014</t>
+          <t>06/11/2014</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>750</v>
+        <v>22500</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>24/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Extracción y procesamiento de áridos Tafra</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>440</v>
+        <v>45000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>27/10/2014</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de áridos Tafra</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>440</v>
+        <v>750</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>29/08/2014</t>
+          <t>24/10/2014</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Bellavista Sur x-1</t>
+          <t>Extracción y procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>26/08/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
+          <t>Extracción y Procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>75000</v>
+        <v>440</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>29/08/2014</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
+          <t>Desarrollo del pozo Bellavista Sur x-1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>25200</v>
+        <v>800</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>26/08/2014</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>15/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
+          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>45000</v>
+        <v>25200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/07/2014</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4907,11 +4907,11 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>47500</v>
+        <v>75000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>07/07/2014</t>
+          <t>15/07/2014</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4955,11 +4955,11 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>52500</v>
+        <v>45000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>03/07/2014</t>
+          <t>07/07/2014</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>27000</v>
+        <v>47500</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>07/07/2014</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5051,11 +5051,11 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>75000</v>
+        <v>52500</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>27/06/2014</t>
+          <t>03/07/2014</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>23/06/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>240</v>
+        <v>75000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>27/06/2014</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5195,21 +5195,21 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>16100</v>
+        <v>27000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>16/06/2014</t>
+          <t>23/06/2014</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,11 +5243,11 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>11700</v>
+        <v>240</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>16/06/2014</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5291,11 +5291,11 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3600</v>
+        <v>16100</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>11/06/2014</t>
+          <t>16/06/2014</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>75000</v>
+        <v>11700</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>02/06/2014</t>
+          <t>16/06/2014</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Tanu x-1</t>
+          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>800</v>
+        <v>3600</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>28/05/2014</t>
+          <t>11/06/2014</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aneki x-1</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,11 +5435,11 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>800</v>
+        <v>75000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>28/05/2014</t>
+          <t>02/06/2014</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aymi x-1</t>
+          <t>Desarrollo del pozo Tanu x-1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5487,17 +5487,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>22/05/2014</t>
+          <t>28/05/2014</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>Desarrollo del pozo Aneki x-1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>20/05/2014</t>
+          <t>28/05/2014</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
+          <t>Desarrollo del pozo Aymi x-1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>58800</v>
+        <v>800</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>22/04/2014</t>
+          <t>22/05/2014</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Pantano Oeste x-1</t>
+          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>22/04/2014</t>
+          <t>20/05/2014</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Keternen x-1</t>
+          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>800</v>
+        <v>58800</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>17/04/2014</t>
+          <t>22/04/2014</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
+          <t>Desarrollo del pozo Pantano Oeste x-1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5723,11 +5723,11 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>976</v>
+        <v>800</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>22/04/2014</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
+          <t>Desarrollo del pozo Keternen x-1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1082</v>
+        <v>800</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>17/04/2014</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>7000</v>
+        <v>976</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>25/02/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
+          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5867,11 +5867,11 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1000</v>
+        <v>1082</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
+          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,11 +5915,11 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2400</v>
+        <v>7000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>25/02/2014</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
+          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,11 +5963,11 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>19200</v>
+        <v>1000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6059,11 +6059,11 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>900</v>
+        <v>19200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>03/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,11 +6107,11 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,11 +6155,11 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>11200</v>
+        <v>900</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/09/2013</t>
+          <t>03/12/2013</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
+          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>16</v>
+        <v>1800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>24/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,11 +6251,11 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>6000</v>
+        <v>11200</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>30/09/2013</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>18000</v>
+        <v>16</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>24/09/2013</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6347,11 +6347,11 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>37500</v>
+        <v>6000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6395,11 +6395,11 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>850</v>
+        <v>18000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>29/08/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6447,17 +6447,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>26/07/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,21 +6491,21 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>6000</v>
+        <v>850</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>26/07/2013</t>
+          <t>29/08/2013</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>18000</v>
+        <v>37500</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,21 +6587,21 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>26/07/2013</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,21 +6635,21 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>14/06/2013</t>
+          <t>26/07/2013</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LYNCH V-1</t>
+          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,21 +6683,21 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>150</v>
+        <v>2500</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>11/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
+          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,11 +6731,11 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>03/06/2013</t>
+          <t>14/06/2013</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
+          <t>LÍNEA DE FLUJO LYNCH V-1</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,11 +6779,11 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2500</v>
+        <v>150</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>30/04/2013</t>
+          <t>11/06/2013</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Caracol B</t>
+          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,11 +6827,11 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>25/04/2013</t>
+          <t>03/06/2013</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,11 +6875,11 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>19/04/2013</t>
+          <t>30/04/2013</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
+          <t>Perforación de Pozo Exploratorio Caracol B</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,11 +6923,11 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1155</v>
+        <v>2500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>22/03/2013</t>
+          <t>25/04/2013</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6971,11 +6971,11 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1370</v>
+        <v>2400</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/04/2013</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
+          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,11 +7019,11 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2500</v>
+        <v>1155</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>22/03/2013</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
+          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,11 +7067,11 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1200</v>
+        <v>1370</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>15/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
+          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,11 +7115,11 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>6600</v>
+        <v>2500</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>30/11/2012</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
+          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,11 +7163,11 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>15/02/2013</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
+          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,11 +7211,11 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>5100</v>
+        <v>6600</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>30/11/2012</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
+          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,11 +7259,11 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>90000</v>
+        <v>6000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>25/09/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
+          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,11 +7307,11 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>9000</v>
+        <v>5100</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>21/08/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
+          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,11 +7355,11 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2000</v>
+        <v>90000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>25/09/2012</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
+          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,11 +7403,11 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>174</v>
+        <v>9000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>26/06/2012</t>
+          <t>21/08/2012</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Manantiales</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,11 +7451,11 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>9600</v>
+        <v>2000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>06/06/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
+          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7499,11 +7499,11 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>60000</v>
+        <v>174</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>24/04/2012</t>
+          <t>26/06/2012</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
+          <t>Genérica Sub-Bloque Manantiales</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,11 +7547,11 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>420</v>
+        <v>9600</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>09/04/2012</t>
+          <t>06/06/2012</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
+          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7595,11 +7595,11 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>280</v>
+        <v>60000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>05/04/2012</t>
+          <t>24/04/2012</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Geike A</t>
+          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7643,11 +7643,11 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2000</v>
+        <v>420</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>20/03/2012</t>
+          <t>09/04/2012</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
+          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7691,11 +7691,11 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>710</v>
+        <v>280</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>25/01/2012</t>
+          <t>05/04/2012</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
+          <t>Perforación de Pozo Exploratorio Geike A</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7739,11 +7739,11 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>16/01/2012</t>
+          <t>20/03/2012</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7787,11 +7787,11 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2200</v>
+        <v>710</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>29/12/2011</t>
+          <t>25/01/2012</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
+          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7835,11 +7835,11 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1100</v>
+        <v>30000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>23/12/2011</t>
+          <t>16/01/2012</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
+          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7883,11 +7883,11 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>96000</v>
+        <v>2200</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>20/12/2011</t>
+          <t>29/12/2011</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
+          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,11 +7931,11 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1510</v>
+        <v>1100</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>05/12/2011</t>
+          <t>23/12/2011</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
+          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7979,11 +7979,11 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2200</v>
+        <v>96000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>20/12/2011</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8027,11 +8027,11 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>15000</v>
+        <v>1510</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>05/12/2011</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
+          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8075,11 +8075,11 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>11/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
+          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8123,11 +8123,11 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2100</v>
+        <v>15000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>11/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
+          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,11 +8171,11 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>11/11/2011</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8219,11 +8219,11 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>06/09/2011</t>
+          <t>11/11/2011</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
+          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>28/07/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
+          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,11 +8315,11 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>18/07/2011</t>
+          <t>06/09/2011</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
+          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,11 +8363,11 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>07/06/2011</t>
+          <t>28/07/2011</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
+          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,11 +8411,11 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>06/06/2011</t>
+          <t>18/07/2011</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
+          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,11 +8459,11 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>31/05/2011</t>
+          <t>07/06/2011</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
+          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,11 +8507,11 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>3100</v>
+        <v>100</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>20/05/2011</t>
+          <t>06/06/2011</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
+          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,11 +8555,11 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>3100</v>
+        <v>4000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>31/05/2011</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
+          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,21 +8603,21 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2250</v>
+        <v>3100</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>03/03/2011</t>
+          <t>20/05/2011</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
+          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8651,21 +8651,21 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1300</v>
+        <v>3100</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>26/01/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,21 +8699,21 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>100</v>
+        <v>2250</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>13/12/2010</t>
+          <t>03/03/2011</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
+          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8747,21 +8747,21 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>220</v>
+        <v>1300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>26/01/2011</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
+          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8795,11 +8795,11 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>12/10/2010</t>
+          <t>13/12/2010</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
+          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,11 +8843,11 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>24/08/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
+          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8891,11 +8891,11 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>19/08/2010</t>
+          <t>12/10/2010</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
+          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,11 +8939,11 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2250</v>
+        <v>225</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>22/07/2010</t>
+          <t>24/08/2010</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
+          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8987,11 +8987,11 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>20/07/2010</t>
+          <t>19/08/2010</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
+          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9035,11 +9035,11 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1000</v>
+        <v>2250</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>12/07/2010</t>
+          <t>22/07/2010</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Perforación del Pozo Exploratorio Mataquito B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9083,11 +9083,11 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>16/06/2010</t>
+          <t>20/07/2010</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,11 +9131,11 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>12/07/2010</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
+          <t>Perforación del Pozo Exploratorio Mataquito B</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9179,11 +9179,11 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>16/06/2010</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
+          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,11 +9227,11 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,21 +9275,21 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
+          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9323,11 +9323,11 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
+          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9371,21 +9371,21 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>5000</v>
+        <v>2800</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>22/03/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Pozo de Exploración Manantiales Oeste B</t>
+          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
+          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9467,11 +9467,11 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>26/02/2010</t>
+          <t>22/03/2010</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
+          <t>Pozo de Exploración Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9515,11 +9515,11 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
+          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9563,11 +9563,11 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>04/01/2010</t>
+          <t>26/02/2010</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
+          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9611,11 +9611,11 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>6000</v>
+        <v>2100</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>20/11/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
+          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9659,11 +9659,11 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>04/01/2010</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
+          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9707,11 +9707,11 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>28/10/2009</t>
+          <t>20/11/2009</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
+          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9755,11 +9755,11 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>20/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
+          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>02/10/2009</t>
+          <t>28/10/2009</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
+          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9851,11 +9851,11 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>20/10/2009</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
+          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9899,11 +9899,11 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>18/06/2009</t>
+          <t>02/10/2009</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
+          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9947,11 +9947,11 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>52000</v>
+        <v>1200</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>12/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
+          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>18/06/2009</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
+          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10043,21 +10043,21 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>52000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>19/12/2008</t>
+          <t>12/06/2009</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10091,11 +10091,11 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2346</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10139,21 +10139,21 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>19/12/2008</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
+          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10187,11 +10187,11 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>100</v>
+        <v>2346</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
+          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,15 +10231,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Primavera</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>23/07/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
+          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10283,11 +10283,11 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>30800</v>
+        <v>100</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>12/03/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
+          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,15 +10327,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Ilustre Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>25200</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>23/07/2008</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,15 +10375,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>21</v>
+        <v>30800</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>12/03/2008</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10427,11 +10427,11 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>13000</v>
+        <v>25200</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,30 +10466,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,15 +10519,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,30 +10562,30 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Inversiones Polo Sur Ltda</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,25 +10615,25 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Inversiones Polo Sur Ltda</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>24/01/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,30 +10658,30 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Inversiones Polo Sur Ltda</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,20 +10706,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Inversiones Polo Sur Ltda</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>24/01/2007</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,30 +10754,30 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10859,11 +10859,11 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>22/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
+          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10907,11 +10907,11 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>65</v>
+        <v>800</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>26/10/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,11 +10955,11 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>28/08/2006</t>
+          <t>22/12/2006</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,25 +10999,25 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>26/10/2006</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,25 +11047,25 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>28/08/2006</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,30 +11090,30 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,25 +11143,25 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>829</v>
+        <v>150</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>16/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11199,17 +11199,17 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,12 +11224,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
+          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -11243,21 +11243,21 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>73200</v>
+        <v>829</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>16/03/2006</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,30 +11282,30 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Gabriel Patiño Kaufer</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>15/11/2004</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,12 +11320,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
+          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -11335,25 +11335,25 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Gabriel Patiño Kaufer</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>16000</v>
+        <v>73200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,12 +11368,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Gasoducto Segundo Cruce</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -11383,15 +11383,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Gabriel Patiño Kaufer</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>25400</v>
+        <v>16000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>24/10/2003</t>
+          <t>15/11/2004</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,25 +11431,25 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Gabriel Patiño Kaufer</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,12 +11464,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Gasoducto Segundo Cruce</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -11483,11 +11483,11 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>9500</v>
+        <v>25400</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>13/12/2002</t>
+          <t>24/10/2003</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,12 +11512,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -11527,15 +11527,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>25/06/2002</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
+          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11579,11 +11579,11 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>40</v>
+        <v>9500</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>18/06/2002</t>
+          <t>13/12/2002</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,12 +11608,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
+          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -11627,11 +11627,11 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>200</v>
+        <v>9500</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>18/06/2002</t>
+          <t>25/06/2002</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,12 +11656,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -11675,11 +11675,11 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4100</v>
+        <v>40</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>17/01/2002</t>
+          <t>18/06/2002</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11723,11 +11723,11 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>22/10/2001</t>
+          <t>18/06/2002</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,40 +11752,40 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>200</v>
+        <v>4100</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/01/2002</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
+          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,25 +11815,25 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Lana y Carne de la Patagonia Chile S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>05/03/2001</t>
+          <t>22/10/2001</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,25 +11863,25 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Complejo Bahía Azul</t>
+          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,25 +11911,25 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Primavera</t>
+          <t>Lana y Carne de la Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>05/03/2001</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,30 +11944,30 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Poliducto Catalina Sur - Gregorio</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>15500</v>
+        <v>110</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,43 +11992,139 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
+          <t>Complejo Bahía Azul</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>I. Municipalidad de Primavera</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>250</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>13/01/2000</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Primavera</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Poliducto Catalina Sur - Gregorio</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>11/11/1998</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Primavera</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
           <t>Construcción Zona de Camping en Cerro Sombrero</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
         <is>
           <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
-      <c r="F243" t="n">
+      <c r="F245" t="n">
         <v>20</v>
       </c>
-      <c r="G243" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>20/06/1997</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I243" t="inlineStr">
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=819&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J243" t="inlineStr">
+      <c r="J245" t="inlineStr">
         <is>
           <t>Primavera</t>
         </is>

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J245"/>
+  <dimension ref="A1:J246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ductos para el Transporte de Agua de Formación en Sector de Tres Lagos</t>
+          <t>Línea de Flujo PAD Estancia Rita ZG-C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/07/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156502281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156701562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oleoducto Golondrina-Cullen</t>
+          <t>Ductos para el Transporte de Agua de Formación en Sector de Tres Lagos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3000</v>
+        <v>350</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156499977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156502281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Construcción de Colector de 14, Nudo Bahía Felipe a Nudo Chorrillo Cortado</t>
+          <t>Oleoducto Golondrina-Cullen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/06/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156296060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156499977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Rancho Grande ZG-A</t>
+          <t>Construcción de Colector de 14, Nudo Bahía Felipe a Nudo Chorrillo Cortado</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,21 +587,21 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155653010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156296060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
+          <t>Línea de Flujo PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12000</v>
+        <v>500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155653010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
+          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>750</v>
+        <v>12000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
+          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
+          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,11 +779,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>30/08/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Cabaña Oeste</t>
+          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>30/08/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
+          <t>Genérica Sub-Bloque Cabaña Oeste</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>750</v>
+        <v>220000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07/06/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Invernada ZG-A</t>
+          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,11 +923,11 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>514</v>
+        <v>750</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>07/06/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
+          <t>Línea de Flujo PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12000</v>
+        <v>514</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>29/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
+          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2620</v>
+        <v>12000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>29/04/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Trébol ZG-B</t>
+          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>250</v>
+        <v>2620</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
+          <t>Línea de Flujo PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,11 +1115,11 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/11/2020</t>
+          <t>18/01/2021</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,11 +1255,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>975</v>
+        <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>975</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>19/11/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/10/2020</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
+          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,11 +1403,11 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/06/2020</t>
+          <t>13/10/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Estimulación hidráulica del pozo Koo x-1</t>
+          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>02/01/2020</t>
+          <t>10/06/2020</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Producción del pozo Koo x-1</t>
+          <t>Estimulación hidráulica del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>760</v>
+        <v>1500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Rigby x-1</t>
+          <t>Producción del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,11 +1547,11 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>02/01/2020</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Huillin x-1</t>
+          <t>Desarrollo del pozo Rigby x-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,11 +1595,11 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2160</v>
+        <v>1760</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>27/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Koo x-1</t>
+          <t>Desarrollo del pozo Huillin x-1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>27/12/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
+          <t>Desarrollo del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6000</v>
+        <v>2160</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>04/12/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
+          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1739,11 +1739,11 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>213000</v>
+        <v>6000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>04/12/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Línea de Flujo Tres Lagos 110</t>
+          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,11 +1787,11 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>400</v>
+        <v>213000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/08/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
+          <t>Línea de Flujo Tres Lagos 110</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
+          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,21 +1883,21 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>213000</v>
+        <v>400</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>20/08/2019</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,21 +1931,21 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>700</v>
+        <v>213000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/06/2019</t>
+          <t>05/08/2019</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
+          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,11 +1979,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>44800</v>
+        <v>700</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/12/2018</t>
+          <t>20/06/2019</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>600</v>
+        <v>44800</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
+          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2075,11 +2075,11 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11/12/2018</t>
+          <t>18/12/2018</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
+          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,11 +2123,11 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>11/12/2018</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6 Líneas de Flujo en el Bloque Arenal</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,11 +2171,11 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>55</v>
+        <v>4000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18/05/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>6 Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,11 +2219,11 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>14000</v>
+        <v>55</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>16/05/2018</t>
+          <t>18/05/2018</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15/03/2018</t>
+          <t>16/05/2018</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,21 +2315,21 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09/03/2018</t>
+          <t>15/03/2018</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,21 +2363,21 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>55</v>
+        <v>14000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19/02/2018</t>
+          <t>09/03/2018</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,11 +2411,11 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>186000</v>
+        <v>55</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13/12/2017</t>
+          <t>19/02/2018</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Tres Lagos</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>400</v>
+        <v>186000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>07/11/2017</t>
+          <t>13/12/2017</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5 Multipozos en el Bloque Arenal</t>
+          <t>Extracción de Áridos Tres Lagos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>52000</v>
+        <v>400</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>17/10/2017</t>
+          <t>07/11/2017</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>5 Multipozos en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,11 +2555,11 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>21000</v>
+        <v>52000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/08/2017</t>
+          <t>17/10/2017</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Interconexión Líneas de Flujo</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,11 +2603,11 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>500</v>
+        <v>21000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17/03/2017</t>
+          <t>09/08/2017</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>Interconexión Líneas de Flujo</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>22000</v>
+        <v>500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Colector Barwick</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,21 +2699,21 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>22000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>17/02/2017</t>
+          <t>17/03/2017</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>Colector Barwick</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,21 +2747,21 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>42000</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>03/01/2017</t>
+          <t>17/02/2017</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,21 +2795,21 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>42000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>18/07/2016</t>
+          <t>03/01/2017</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,11 +2843,11 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>20000</v>
+        <v>1200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>29/04/2016</t>
+          <t>18/07/2016</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,11 +2891,11 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18/02/2016</t>
+          <t>29/04/2016</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,7 +2939,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
+          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,11 +2987,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>21000</v>
+        <v>1200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>18/02/2016</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,21 +3035,21 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>450</v>
+        <v>21000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,21 +3083,21 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
+          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,11 +3131,11 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>7920</v>
+        <v>1200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,11 +3227,11 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>21000</v>
+        <v>7920</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
+          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,11 +3275,11 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>204000</v>
+        <v>21000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>02/09/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
+          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2400</v>
+        <v>204000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
+          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,21 +3371,21 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>850</v>
+        <v>2400</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>18/08/2015</t>
+          <t>02/09/2015</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04/08/2015</t>
+          <t>18/08/2015</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>04/08/2015</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>7920</v>
+        <v>1600</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>20000</v>
+        <v>7920</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,21 +3659,21 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1600</v>
+        <v>20000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,21 +3707,21 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1144</v>
+        <v>1600</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15/05/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
+          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3755,11 +3755,11 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>850</v>
+        <v>1144</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>15/05/2015</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
+          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
+          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
+          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,11 +3899,11 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
+          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
+          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4043,11 +4043,11 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>39600</v>
+        <v>1050</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4091,11 +4091,11 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>800</v>
+        <v>39600</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
+          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4139,11 +4139,11 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
+          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4187,11 +4187,11 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4283,11 +4283,11 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>43200</v>
+        <v>750</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09/12/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>55000</v>
+        <v>43200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>750</v>
+        <v>55000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>09/12/2014</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>980</v>
+        <v>750</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloque Arenal</t>
+          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>150000</v>
+        <v>980</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>06/11/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
+          <t>Genérica Sub Bloque Arenal</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>22500</v>
+        <v>150000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>06/11/2014</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4571,21 +4571,21 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>27/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>750</v>
+        <v>45000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>24/10/2014</t>
+          <t>27/10/2014</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Extracción y procesamiento de áridos Tafra</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>440</v>
+        <v>750</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>24/10/2014</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de áridos Tafra</t>
+          <t>Extracción y procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>29/08/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Bellavista Sur x-1</t>
+          <t>Extracción y Procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>26/08/2014</t>
+          <t>29/08/2014</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
+          <t>Desarrollo del pozo Bellavista Sur x-1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,11 +4811,11 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>75000</v>
+        <v>800</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>26/08/2014</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>25200</v>
+        <v>75000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
+          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>75000</v>
+        <v>25200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>15/07/2014</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4955,11 +4955,11 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/07/2014</t>
+          <t>15/07/2014</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5003,7 +5003,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>47500</v>
+        <v>45000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5051,11 +5051,11 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>52500</v>
+        <v>47500</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>03/07/2014</t>
+          <t>07/07/2014</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>27000</v>
+        <v>52500</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>03/07/2014</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>27/06/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>27000</v>
+        <v>75000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>23/06/2014</t>
+          <t>27/06/2014</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,21 +5243,21 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>240</v>
+        <v>27000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>23/06/2014</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
+          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5291,11 +5291,11 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>16100</v>
+        <v>240</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>16/06/2014</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>11700</v>
+        <v>16100</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5387,11 +5387,11 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3600</v>
+        <v>11700</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>11/06/2014</t>
+          <t>16/06/2014</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
+          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>75000</v>
+        <v>3600</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>02/06/2014</t>
+          <t>11/06/2014</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Tanu x-1</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5483,11 +5483,11 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>800</v>
+        <v>75000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>28/05/2014</t>
+          <t>02/06/2014</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aneki x-1</t>
+          <t>Desarrollo del pozo Tanu x-1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aymi x-1</t>
+          <t>Desarrollo del pozo Aneki x-1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>22/05/2014</t>
+          <t>28/05/2014</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>Desarrollo del pozo Aymi x-1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>20/05/2014</t>
+          <t>22/05/2014</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
+          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5675,11 +5675,11 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>58800</v>
+        <v>500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>22/04/2014</t>
+          <t>20/05/2014</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Pantano Oeste x-1</t>
+          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>800</v>
+        <v>58800</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Keternen x-1</t>
+          <t>Desarrollo del pozo Pantano Oeste x-1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>17/04/2014</t>
+          <t>22/04/2014</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
+          <t>Desarrollo del pozo Keternen x-1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5819,11 +5819,11 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>976</v>
+        <v>800</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>17/04/2014</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
+          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1082</v>
+        <v>976</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,11 +5915,11 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>7000</v>
+        <v>1082</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>25/02/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
+          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,11 +5963,11 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>25/02/2014</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
+          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,11 +6011,11 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>19200</v>
+        <v>2400</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
+          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>800</v>
+        <v>19200</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,11 +6155,11 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>03/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6203,11 +6203,11 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>03/12/2013</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,11 +6251,11 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>11200</v>
+        <v>1800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
+          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>16</v>
+        <v>11200</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>24/09/2013</t>
+          <t>30/09/2013</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>6000</v>
+        <v>16</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>24/09/2013</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6395,7 +6395,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,11 +6443,11 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>37500</v>
+        <v>18000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,11 +6491,11 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>850</v>
+        <v>37500</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>29/08/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,21 +6539,21 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>37500</v>
+        <v>850</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>26/07/2013</t>
+          <t>29/08/2013</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>6000</v>
+        <v>37500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,21 +6683,21 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2500</v>
+        <v>18000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>26/07/2013</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
+          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,21 +6731,21 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>14/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LYNCH V-1</t>
+          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,11 +6779,11 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>150</v>
+        <v>4000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>11/06/2013</t>
+          <t>14/06/2013</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
+          <t>LÍNEA DE FLUJO LYNCH V-1</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,11 +6827,11 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>03/06/2013</t>
+          <t>11/06/2013</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
+          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,11 +6875,11 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>30/04/2013</t>
+          <t>03/06/2013</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Caracol B</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>25/04/2013</t>
+          <t>30/04/2013</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
+          <t>Perforación de Pozo Exploratorio Caracol B</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6971,11 +6971,11 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>19/04/2013</t>
+          <t>25/04/2013</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,11 +7019,11 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1155</v>
+        <v>2400</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>22/03/2013</t>
+          <t>19/04/2013</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
+          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,11 +7067,11 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1370</v>
+        <v>1155</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>22/03/2013</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
+          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,11 +7115,11 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2500</v>
+        <v>1370</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
+          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,11 +7163,11 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>15/02/2013</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
+          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,11 +7211,11 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>6600</v>
+        <v>1200</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>30/11/2012</t>
+          <t>15/02/2013</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
+          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,11 +7259,11 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>30/11/2012</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
+          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,11 +7307,11 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
+          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,11 +7355,11 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>90000</v>
+        <v>5100</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>25/09/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
+          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,11 +7403,11 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>21/08/2012</t>
+          <t>25/09/2012</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
+          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,11 +7451,11 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>21/08/2012</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7499,11 +7499,11 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>174</v>
+        <v>2000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>26/06/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Manantiales</t>
+          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,11 +7547,11 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>9600</v>
+        <v>174</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>06/06/2012</t>
+          <t>26/06/2012</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
+          <t>Genérica Sub-Bloque Manantiales</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7595,11 +7595,11 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>60000</v>
+        <v>9600</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>24/04/2012</t>
+          <t>06/06/2012</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
+          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7643,11 +7643,11 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>420</v>
+        <v>60000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>09/04/2012</t>
+          <t>24/04/2012</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
+          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7691,11 +7691,11 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>05/04/2012</t>
+          <t>09/04/2012</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Geike A</t>
+          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7739,11 +7739,11 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2000</v>
+        <v>280</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>20/03/2012</t>
+          <t>05/04/2012</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
+          <t>Perforación de Pozo Exploratorio Geike A</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7787,11 +7787,11 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>710</v>
+        <v>2000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>25/01/2012</t>
+          <t>20/03/2012</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7835,11 +7835,11 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>30000</v>
+        <v>710</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>16/01/2012</t>
+          <t>25/01/2012</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
+          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7883,11 +7883,11 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>2200</v>
+        <v>30000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>29/12/2011</t>
+          <t>16/01/2012</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
+          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,11 +7931,11 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>23/12/2011</t>
+          <t>29/12/2011</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
+          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7979,11 +7979,11 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>96000</v>
+        <v>1100</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>20/12/2011</t>
+          <t>23/12/2011</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
+          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8027,11 +8027,11 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1510</v>
+        <v>96000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>05/12/2011</t>
+          <t>20/12/2011</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8075,11 +8075,11 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>2200</v>
+        <v>1510</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>05/12/2011</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
+          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8123,11 +8123,11 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>15000</v>
+        <v>2200</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
+          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,11 +8171,11 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>11/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
+          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8219,7 +8219,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8267,11 +8267,11 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>11/11/2011</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
+          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,11 +8315,11 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>06/09/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
+          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,11 +8363,11 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>28/07/2011</t>
+          <t>06/09/2011</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
+          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,11 +8411,11 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>18/07/2011</t>
+          <t>28/07/2011</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
+          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,11 +8459,11 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>07/06/2011</t>
+          <t>18/07/2011</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
+          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>06/06/2011</t>
+          <t>07/06/2011</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
+          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,11 +8555,11 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>31/05/2011</t>
+          <t>06/06/2011</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
+          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,11 +8603,11 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>3100</v>
+        <v>4000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>20/05/2011</t>
+          <t>31/05/2011</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
+          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>20/05/2011</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
+          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,21 +8699,21 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2250</v>
+        <v>3100</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>03/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8747,21 +8747,21 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1300</v>
+        <v>2250</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>26/01/2011</t>
+          <t>03/03/2011</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
+          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8795,21 +8795,21 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>13/12/2010</t>
+          <t>26/01/2011</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
+          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,11 +8843,11 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>13/12/2010</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
+          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8891,11 +8891,11 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>12/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
+          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>24/08/2010</t>
+          <t>12/10/2010</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
+          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8987,11 +8987,11 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>19/08/2010</t>
+          <t>24/08/2010</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
+          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9035,11 +9035,11 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>22/07/2010</t>
+          <t>19/08/2010</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
+          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9083,11 +9083,11 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1000</v>
+        <v>2250</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>20/07/2010</t>
+          <t>22/07/2010</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9135,7 +9135,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>12/07/2010</t>
+          <t>20/07/2010</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Perforación del Pozo Exploratorio Mataquito B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9179,11 +9179,11 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>16/06/2010</t>
+          <t>12/07/2010</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>Perforación del Pozo Exploratorio Mataquito B</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,11 +9227,11 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>16/06/2010</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
+          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,11 +9275,11 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9323,11 +9323,11 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9371,21 +9371,21 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
+          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9419,21 +9419,21 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
+          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9467,11 +9467,11 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>22/03/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Pozo de Exploración Manantiales Oeste B</t>
+          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9515,11 +9515,11 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>22/03/2010</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
+          <t>Pozo de Exploración Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>26/02/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
+          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9611,11 +9611,11 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>26/02/2010</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
+          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9659,11 +9659,11 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>04/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
+          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9707,11 +9707,11 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>20/11/2009</t>
+          <t>04/01/2010</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
+          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>20/11/2009</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
+          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9803,11 +9803,11 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>28/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
+          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9851,11 +9851,11 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>20/10/2009</t>
+          <t>28/10/2009</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
+          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9899,11 +9899,11 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>02/10/2009</t>
+          <t>20/10/2009</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
+          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9947,11 +9947,11 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>02/10/2009</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
+          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9995,11 +9995,11 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>18/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
+          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10043,11 +10043,11 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>52000</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>12/06/2009</t>
+          <t>18/06/2009</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
+          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10091,11 +10091,11 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>52000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>12/06/2009</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10143,17 +10143,17 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>19/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10187,21 +10187,21 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2346</v>
+        <v>2500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>19/12/2008</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
+          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10235,11 +10235,11 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>3200</v>
+        <v>2346</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
+          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10283,11 +10283,11 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>100</v>
+        <v>3200</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
+          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,15 +10327,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Primavera</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>23/07/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
+          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,15 +10375,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Ilustre Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>30800</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>12/03/2008</t>
+          <t>23/07/2008</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10427,11 +10427,11 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>25200</v>
+        <v>30800</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>12/03/2008</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,15 +10471,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>21</v>
+        <v>25200</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
+          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,15 +10519,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>13000</v>
+        <v>21</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,30 +10562,30 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,30 +10610,30 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,15 +10663,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Inversiones Polo Sur Ltda</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
+          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10719,17 +10719,17 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>24/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,30 +10754,30 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Inversiones Polo Sur Ltda</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>24/01/2007</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10815,17 +10815,17 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
+          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,11 +10955,11 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>22/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11003,11 +11003,11 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>26/10/2006</t>
+          <t>22/12/2006</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
+          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11051,11 +11051,11 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1800</v>
+        <v>65</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>28/08/2006</t>
+          <t>26/10/2006</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,25 +11095,25 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>28/08/2006</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11151,17 +11151,17 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,30 +11186,30 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,30 +11234,30 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>829</v>
+        <v>4000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>16/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,30 +11282,30 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4000</v>
+        <v>829</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>16/03/2006</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,40 +11320,40 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>73200</v>
+        <v>4000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,12 +11368,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
+          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -11383,15 +11383,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Gabriel Patiño Kaufer</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>16000</v>
+        <v>73200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>15/11/2004</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11439,17 +11439,17 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>15/11/2004</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,12 +11464,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Gasoducto Segundo Cruce</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -11479,25 +11479,25 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Gabriel Patiño Kaufer</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>25400</v>
+        <v>16000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>24/10/2003</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,12 +11512,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Gasoducto Segundo Cruce</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -11527,15 +11527,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>25400</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>24/10/2003</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,15 +11575,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>13/12/2002</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,12 +11608,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>25/06/2002</t>
+          <t>13/12/2002</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,12 +11656,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
+          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -11675,11 +11675,11 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>40</v>
+        <v>9500</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>18/06/2002</t>
+          <t>25/06/2002</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11723,7 +11723,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,12 +11752,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -11771,11 +11771,11 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4100</v>
+        <v>200</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>17/01/2002</t>
+          <t>18/06/2002</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,12 +11800,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
+          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -11819,11 +11819,11 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>22/10/2001</t>
+          <t>17/01/2002</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,30 +11858,30 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>22/10/2001</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,20 +11906,20 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Lana y Carne de la Patagonia Chile S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>05/03/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,30 +11954,30 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Lana y Carne de la Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/03/2001</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Complejo Bahía Azul</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12002,20 +12002,20 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Primavera</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,12 +12040,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Poliducto Catalina Sur - Gregorio</t>
+          <t>Complejo Bahía Azul</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -12055,15 +12055,15 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>15500</v>
+        <v>250</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,43 +12088,91 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
+          <t>Poliducto Catalina Sur - Gregorio</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>11/11/1998</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Primavera</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
           <t>Construcción Zona de Camping en Cerro Sombrero</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
         <is>
           <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
-      <c r="F245" t="n">
+      <c r="F246" t="n">
         <v>20</v>
       </c>
-      <c r="G245" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>20/06/1997</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I245" t="inlineStr">
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=819&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J245" t="inlineStr">
+      <c r="J246" t="inlineStr">
         <is>
           <t>Primavera</t>
         </is>

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>19/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J246"/>
+  <dimension ref="A1:J247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Estancia Rita ZG-C</t>
+          <t>Extracción y Procesamiento de Áridos La Italiana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/08/2022</t>
+          <t>02/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156701562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156897452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ductos para el Transporte de Agua de Formación en Sector de Tres Lagos</t>
+          <t>Línea de Flujo PAD Estancia Rita ZG-C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,11 +491,11 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/07/2022</t>
+          <t>19/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156502281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156701562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oleoducto Golondrina-Cullen</t>
+          <t>Ductos para el Transporte de Agua de Formación en Sector de Tres Lagos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3000</v>
+        <v>350</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156499977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156502281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Construcción de Colector de 14, Nudo Bahía Felipe a Nudo Chorrillo Cortado</t>
+          <t>Oleoducto Golondrina-Cullen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/06/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156296060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156499977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Rancho Grande ZG-A</t>
+          <t>Construcción de Colector de 14, Nudo Bahía Felipe a Nudo Chorrillo Cortado</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,21 +635,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155653010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156296060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
+          <t>Línea de Flujo PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12000</v>
+        <v>500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155653010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
+          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>750</v>
+        <v>12000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
+          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,11 +779,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
+          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>30/08/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Cabaña Oeste</t>
+          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>30/08/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
+          <t>Genérica Sub-Bloque Cabaña Oeste</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,11 +923,11 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>750</v>
+        <v>220000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07/06/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Invernada ZG-A</t>
+          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>514</v>
+        <v>750</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>07/06/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
+          <t>Línea de Flujo PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>12000</v>
+        <v>514</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>29/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
+          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2620</v>
+        <v>12000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>29/04/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Trébol ZG-B</t>
+          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,11 +1115,11 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>250</v>
+        <v>2620</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
+          <t>Línea de Flujo PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,11 +1163,11 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19/11/2020</t>
+          <t>18/01/2021</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,11 +1303,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>975</v>
+        <v>10</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>975</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>19/11/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13/10/2020</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
+          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,11 +1451,11 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/06/2020</t>
+          <t>13/10/2020</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Estimulación hidráulica del pozo Koo x-1</t>
+          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>02/01/2020</t>
+          <t>10/06/2020</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Producción del pozo Koo x-1</t>
+          <t>Estimulación hidráulica del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>760</v>
+        <v>1500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Rigby x-1</t>
+          <t>Producción del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,11 +1595,11 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>02/01/2020</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Huillin x-1</t>
+          <t>Desarrollo del pozo Rigby x-1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,11 +1643,11 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2160</v>
+        <v>1760</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>27/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Koo x-1</t>
+          <t>Desarrollo del pozo Huillin x-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>27/12/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
+          <t>Desarrollo del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>6000</v>
+        <v>2160</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>04/12/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
+          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,11 +1787,11 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>213000</v>
+        <v>6000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>04/12/2019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Línea de Flujo Tres Lagos 110</t>
+          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,11 +1835,11 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>400</v>
+        <v>213000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/08/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
+          <t>Línea de Flujo Tres Lagos 110</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
+          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,21 +1931,21 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>213000</v>
+        <v>400</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>20/08/2019</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,21 +1979,21 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>700</v>
+        <v>213000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/06/2019</t>
+          <t>05/08/2019</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
+          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,11 +2027,11 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>44800</v>
+        <v>700</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/12/2018</t>
+          <t>20/06/2019</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>600</v>
+        <v>44800</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
+          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,11 +2123,11 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11/12/2018</t>
+          <t>18/12/2018</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
+          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,11 +2171,11 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>11/12/2018</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6 Líneas de Flujo en el Bloque Arenal</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,11 +2219,11 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>55</v>
+        <v>4000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18/05/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>6 Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>14000</v>
+        <v>55</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>16/05/2018</t>
+          <t>18/05/2018</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,11 +2315,11 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15/03/2018</t>
+          <t>16/05/2018</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,21 +2363,21 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09/03/2018</t>
+          <t>15/03/2018</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,21 +2411,21 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>55</v>
+        <v>14000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19/02/2018</t>
+          <t>09/03/2018</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,11 +2459,11 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>186000</v>
+        <v>55</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>13/12/2017</t>
+          <t>19/02/2018</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Tres Lagos</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>400</v>
+        <v>186000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>07/11/2017</t>
+          <t>13/12/2017</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5 Multipozos en el Bloque Arenal</t>
+          <t>Extracción de Áridos Tres Lagos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>52000</v>
+        <v>400</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>17/10/2017</t>
+          <t>07/11/2017</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>5 Multipozos en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,11 +2603,11 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>21000</v>
+        <v>52000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09/08/2017</t>
+          <t>17/10/2017</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Interconexión Líneas de Flujo</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,11 +2651,11 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>500</v>
+        <v>21000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17/03/2017</t>
+          <t>09/08/2017</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>Interconexión Líneas de Flujo</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>22000</v>
+        <v>500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Colector Barwick</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,21 +2747,21 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1500</v>
+        <v>22000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>17/02/2017</t>
+          <t>17/03/2017</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>Colector Barwick</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,21 +2795,21 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>42000</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>03/01/2017</t>
+          <t>17/02/2017</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,21 +2843,21 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1200</v>
+        <v>42000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18/07/2016</t>
+          <t>03/01/2017</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,11 +2891,11 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>20000</v>
+        <v>1200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>29/04/2016</t>
+          <t>18/07/2016</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,11 +2939,11 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18/02/2016</t>
+          <t>29/04/2016</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
+          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,11 +3035,11 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>21000</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>18/02/2016</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,21 +3083,21 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>450</v>
+        <v>21000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,21 +3131,21 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
+          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,11 +3179,11 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>7920</v>
+        <v>1200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,11 +3275,11 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>21000</v>
+        <v>7920</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
+          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,11 +3323,11 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>204000</v>
+        <v>21000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>02/09/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
+          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2400</v>
+        <v>204000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
+          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,21 +3419,21 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>850</v>
+        <v>2400</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18/08/2015</t>
+          <t>02/09/2015</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04/08/2015</t>
+          <t>18/08/2015</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>04/08/2015</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>7920</v>
+        <v>1600</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>20000</v>
+        <v>7920</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,21 +3707,21 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1600</v>
+        <v>20000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3755,21 +3755,21 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1144</v>
+        <v>1600</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>15/05/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
+          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3803,11 +3803,11 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>850</v>
+        <v>1144</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>15/05/2015</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
+          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
+          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
+          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,11 +3947,11 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
+          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
+          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4091,11 +4091,11 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>39600</v>
+        <v>1050</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4139,11 +4139,11 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>800</v>
+        <v>39600</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
+          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4187,11 +4187,11 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
+          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4235,11 +4235,11 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4283,7 +4283,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4331,11 +4331,11 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>43200</v>
+        <v>750</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>09/12/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>55000</v>
+        <v>43200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>750</v>
+        <v>55000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>09/12/2014</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>980</v>
+        <v>750</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloque Arenal</t>
+          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>150000</v>
+        <v>980</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>06/11/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
+          <t>Genérica Sub Bloque Arenal</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>22500</v>
+        <v>150000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>06/11/2014</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4619,21 +4619,21 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>27/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>750</v>
+        <v>45000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>24/10/2014</t>
+          <t>27/10/2014</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Extracción y procesamiento de áridos Tafra</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>440</v>
+        <v>750</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>24/10/2014</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de áridos Tafra</t>
+          <t>Extracción y procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>29/08/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Bellavista Sur x-1</t>
+          <t>Extracción y Procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>26/08/2014</t>
+          <t>29/08/2014</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
+          <t>Desarrollo del pozo Bellavista Sur x-1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,11 +4859,11 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>75000</v>
+        <v>800</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>26/08/2014</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>25200</v>
+        <v>75000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
+          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>75000</v>
+        <v>25200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>15/07/2014</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5003,11 +5003,11 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>07/07/2014</t>
+          <t>15/07/2014</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>47500</v>
+        <v>45000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5099,11 +5099,11 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>52500</v>
+        <v>47500</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>03/07/2014</t>
+          <t>07/07/2014</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>27000</v>
+        <v>52500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>03/07/2014</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>27/06/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>27000</v>
+        <v>75000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>23/06/2014</t>
+          <t>27/06/2014</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5291,21 +5291,21 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>240</v>
+        <v>27000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>23/06/2014</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
+          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5339,11 +5339,11 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>16100</v>
+        <v>240</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>16/06/2014</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>11700</v>
+        <v>16100</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,11 +5435,11 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3600</v>
+        <v>11700</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>11/06/2014</t>
+          <t>16/06/2014</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
+          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>75000</v>
+        <v>3600</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>02/06/2014</t>
+          <t>11/06/2014</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Tanu x-1</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5531,11 +5531,11 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>800</v>
+        <v>75000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>28/05/2014</t>
+          <t>02/06/2014</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aneki x-1</t>
+          <t>Desarrollo del pozo Tanu x-1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aymi x-1</t>
+          <t>Desarrollo del pozo Aneki x-1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5631,17 +5631,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>22/05/2014</t>
+          <t>28/05/2014</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>Desarrollo del pozo Aymi x-1</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>20/05/2014</t>
+          <t>22/05/2014</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
+          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5723,11 +5723,11 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>58800</v>
+        <v>500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>22/04/2014</t>
+          <t>20/05/2014</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Pantano Oeste x-1</t>
+          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>800</v>
+        <v>58800</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Keternen x-1</t>
+          <t>Desarrollo del pozo Pantano Oeste x-1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>17/04/2014</t>
+          <t>22/04/2014</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
+          <t>Desarrollo del pozo Keternen x-1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5867,11 +5867,11 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>976</v>
+        <v>800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>17/04/2014</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
+          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1082</v>
+        <v>976</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,11 +5963,11 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>7000</v>
+        <v>1082</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>25/02/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
+          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,11 +6011,11 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>25/02/2014</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
+          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6059,11 +6059,11 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>19200</v>
+        <v>2400</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
+          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,7 +6155,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>800</v>
+        <v>19200</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6203,11 +6203,11 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>03/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,11 +6251,11 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>03/12/2013</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6299,11 +6299,11 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>11200</v>
+        <v>1800</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>30/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
+          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>16</v>
+        <v>11200</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>24/09/2013</t>
+          <t>30/09/2013</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>6000</v>
+        <v>16</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>24/09/2013</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,7 +6443,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,11 +6491,11 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>37500</v>
+        <v>18000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,11 +6539,11 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>850</v>
+        <v>37500</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>29/08/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,21 +6587,21 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>37500</v>
+        <v>850</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>26/07/2013</t>
+          <t>29/08/2013</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>6000</v>
+        <v>37500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,7 +6683,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,21 +6731,21 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2500</v>
+        <v>18000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>26/07/2013</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
+          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,21 +6779,21 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>14/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LYNCH V-1</t>
+          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,11 +6827,11 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>150</v>
+        <v>4000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>11/06/2013</t>
+          <t>14/06/2013</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
+          <t>LÍNEA DE FLUJO LYNCH V-1</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,11 +6875,11 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>03/06/2013</t>
+          <t>11/06/2013</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
+          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,11 +6923,11 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>30/04/2013</t>
+          <t>03/06/2013</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Caracol B</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>25/04/2013</t>
+          <t>30/04/2013</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
+          <t>Perforación de Pozo Exploratorio Caracol B</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,11 +7019,11 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>19/04/2013</t>
+          <t>25/04/2013</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,11 +7067,11 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1155</v>
+        <v>2400</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>22/03/2013</t>
+          <t>19/04/2013</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
+          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,11 +7115,11 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1370</v>
+        <v>1155</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>22/03/2013</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
+          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,11 +7163,11 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2500</v>
+        <v>1370</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
+          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,11 +7211,11 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>15/02/2013</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
+          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,11 +7259,11 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>6600</v>
+        <v>1200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>30/11/2012</t>
+          <t>15/02/2013</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
+          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,11 +7307,11 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>30/11/2012</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
+          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,11 +7355,11 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
+          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,11 +7403,11 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>90000</v>
+        <v>5100</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>25/09/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
+          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,11 +7451,11 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>21/08/2012</t>
+          <t>25/09/2012</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
+          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7499,11 +7499,11 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>21/08/2012</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,11 +7547,11 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>174</v>
+        <v>2000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>26/06/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Manantiales</t>
+          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7595,11 +7595,11 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>9600</v>
+        <v>174</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>06/06/2012</t>
+          <t>26/06/2012</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
+          <t>Genérica Sub-Bloque Manantiales</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7643,11 +7643,11 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>60000</v>
+        <v>9600</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>24/04/2012</t>
+          <t>06/06/2012</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
+          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7691,11 +7691,11 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>420</v>
+        <v>60000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>09/04/2012</t>
+          <t>24/04/2012</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
+          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7739,11 +7739,11 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>05/04/2012</t>
+          <t>09/04/2012</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Geike A</t>
+          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7787,11 +7787,11 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2000</v>
+        <v>280</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>20/03/2012</t>
+          <t>05/04/2012</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
+          <t>Perforación de Pozo Exploratorio Geike A</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7835,11 +7835,11 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>710</v>
+        <v>2000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>25/01/2012</t>
+          <t>20/03/2012</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7883,11 +7883,11 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>30000</v>
+        <v>710</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>16/01/2012</t>
+          <t>25/01/2012</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
+          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,11 +7931,11 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2200</v>
+        <v>30000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>29/12/2011</t>
+          <t>16/01/2012</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
+          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7979,11 +7979,11 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>23/12/2011</t>
+          <t>29/12/2011</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
+          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8027,11 +8027,11 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>96000</v>
+        <v>1100</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>20/12/2011</t>
+          <t>23/12/2011</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
+          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8075,11 +8075,11 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1510</v>
+        <v>96000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>05/12/2011</t>
+          <t>20/12/2011</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8123,11 +8123,11 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2200</v>
+        <v>1510</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>05/12/2011</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
+          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,11 +8171,11 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>15000</v>
+        <v>2200</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
+          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8219,11 +8219,11 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>11/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
+          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,11 +8315,11 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>11/11/2011</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
+          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,11 +8363,11 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>06/09/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
+          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,11 +8411,11 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>28/07/2011</t>
+          <t>06/09/2011</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
+          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,11 +8459,11 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>18/07/2011</t>
+          <t>28/07/2011</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
+          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,11 +8507,11 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>07/06/2011</t>
+          <t>18/07/2011</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
+          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8559,7 +8559,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>06/06/2011</t>
+          <t>07/06/2011</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
+          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,11 +8603,11 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>31/05/2011</t>
+          <t>06/06/2011</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
+          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8651,11 +8651,11 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>3100</v>
+        <v>4000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>20/05/2011</t>
+          <t>31/05/2011</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
+          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>20/05/2011</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
+          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8747,21 +8747,21 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2250</v>
+        <v>3100</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>03/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8795,21 +8795,21 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1300</v>
+        <v>2250</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>26/01/2011</t>
+          <t>03/03/2011</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
+          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,21 +8843,21 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>13/12/2010</t>
+          <t>26/01/2011</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
+          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8891,11 +8891,11 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>13/12/2010</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
+          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,11 +8939,11 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>12/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
+          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>24/08/2010</t>
+          <t>12/10/2010</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
+          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9035,11 +9035,11 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>19/08/2010</t>
+          <t>24/08/2010</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
+          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9083,11 +9083,11 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>22/07/2010</t>
+          <t>19/08/2010</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
+          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,11 +9131,11 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1000</v>
+        <v>2250</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>20/07/2010</t>
+          <t>22/07/2010</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>12/07/2010</t>
+          <t>20/07/2010</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Perforación del Pozo Exploratorio Mataquito B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,11 +9227,11 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>16/06/2010</t>
+          <t>12/07/2010</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>Perforación del Pozo Exploratorio Mataquito B</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,11 +9275,11 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>16/06/2010</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
+          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9323,11 +9323,11 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9371,11 +9371,11 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9419,21 +9419,21 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
+          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9467,21 +9467,21 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
+          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9515,11 +9515,11 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>22/03/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Pozo de Exploración Manantiales Oeste B</t>
+          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9563,11 +9563,11 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>22/03/2010</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
+          <t>Pozo de Exploración Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>26/02/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
+          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9659,11 +9659,11 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>26/02/2010</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
+          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9707,11 +9707,11 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>04/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
+          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9755,11 +9755,11 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>20/11/2009</t>
+          <t>04/01/2010</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
+          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>20/11/2009</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
+          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9851,11 +9851,11 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>28/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
+          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9899,11 +9899,11 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>20/10/2009</t>
+          <t>28/10/2009</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
+          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9947,11 +9947,11 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>02/10/2009</t>
+          <t>20/10/2009</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
+          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9995,11 +9995,11 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>02/10/2009</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
+          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10043,11 +10043,11 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>18/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
+          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10091,11 +10091,11 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>52000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>12/06/2009</t>
+          <t>18/06/2009</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
+          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10139,11 +10139,11 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>52000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>12/06/2009</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10191,17 +10191,17 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>19/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10235,21 +10235,21 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2346</v>
+        <v>2500</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>19/12/2008</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
+          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10283,11 +10283,11 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>3200</v>
+        <v>2346</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
+          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10331,11 +10331,11 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>100</v>
+        <v>3200</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
+          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,15 +10375,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Primavera</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>23/07/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
+          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,15 +10423,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Ilustre Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>30800</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>12/03/2008</t>
+          <t>23/07/2008</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10475,11 +10475,11 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>25200</v>
+        <v>30800</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>12/03/2008</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,15 +10519,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>21</v>
+        <v>25200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
+          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,15 +10567,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>13000</v>
+        <v>21</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,30 +10610,30 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,30 +10658,30 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,15 +10711,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Inversiones Polo Sur Ltda</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
+          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10767,17 +10767,17 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>24/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,30 +10802,30 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Inversiones Polo Sur Ltda</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>24/01/2007</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10863,17 +10863,17 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
+          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11003,11 +11003,11 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>22/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11051,11 +11051,11 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>26/10/2006</t>
+          <t>22/12/2006</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
+          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11099,11 +11099,11 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1800</v>
+        <v>65</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>28/08/2006</t>
+          <t>26/10/2006</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,25 +11143,25 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>28/08/2006</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11199,17 +11199,17 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,30 +11234,30 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,30 +11282,30 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>829</v>
+        <v>4000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>16/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,30 +11330,30 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4000</v>
+        <v>829</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>16/03/2006</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,40 +11368,40 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>73200</v>
+        <v>4000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,12 +11416,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
+          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -11431,15 +11431,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Gabriel Patiño Kaufer</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>16000</v>
+        <v>73200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>15/11/2004</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11487,17 +11487,17 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>15/11/2004</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,12 +11512,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Gasoducto Segundo Cruce</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -11527,25 +11527,25 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Gabriel Patiño Kaufer</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>25400</v>
+        <v>16000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>24/10/2003</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,12 +11560,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Gasoducto Segundo Cruce</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -11575,15 +11575,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>25400</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>24/10/2003</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,15 +11623,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>13/12/2002</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,12 +11656,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -11679,7 +11679,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>25/06/2002</t>
+          <t>13/12/2002</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,12 +11704,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
+          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -11723,11 +11723,11 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>40</v>
+        <v>9500</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>18/06/2002</t>
+          <t>25/06/2002</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,12 +11800,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -11819,11 +11819,11 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4100</v>
+        <v>200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>17/01/2002</t>
+          <t>18/06/2002</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,12 +11848,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
+          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -11867,11 +11867,11 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>22/10/2001</t>
+          <t>17/01/2002</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,30 +11906,30 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>22/10/2001</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,20 +11954,20 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Lana y Carne de la Patagonia Chile S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>05/03/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12002,30 +12002,30 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Lana y Carne de la Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/03/2001</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Complejo Bahía Azul</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,20 +12050,20 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Primavera</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,12 +12088,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Poliducto Catalina Sur - Gregorio</t>
+          <t>Complejo Bahía Azul</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -12103,15 +12103,15 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>15500</v>
+        <v>250</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,43 +12136,91 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
+          <t>Poliducto Catalina Sur - Gregorio</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>11/11/1998</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Primavera</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
           <t>Construcción Zona de Camping en Cerro Sombrero</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
         <is>
           <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
-      <c r="F246" t="n">
+      <c r="F247" t="n">
         <v>20</v>
       </c>
-      <c r="G246" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>20/06/1997</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I246" t="inlineStr">
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=819&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J246" t="inlineStr">
+      <c r="J247" t="inlineStr">
         <is>
           <t>Primavera</t>
         </is>

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/09/2022</t>
+          <t>08/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J247"/>
+  <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos La Italiana</t>
+          <t>Fracturación Hidráulica PAD Estancia Rita ZG-C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/09/2022</t>
+          <t>17/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156897452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157299795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Estancia Rita ZG-C</t>
+          <t>Extracción y Procesamiento de Áridos La Italiana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/08/2022</t>
+          <t>08/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156701562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156897452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ductos para el Transporte de Agua de Formación en Sector de Tres Lagos</t>
+          <t>Línea de Flujo PAD Estancia Rita ZG-C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/07/2022</t>
+          <t>19/08/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156502281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156701562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oleoducto Golondrina-Cullen</t>
+          <t>Ductos para el Transporte de Agua de Formación en Sector de Tres Lagos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3000</v>
+        <v>350</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156499977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156502281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Construcción de Colector de 14, Nudo Bahía Felipe a Nudo Chorrillo Cortado</t>
+          <t>Oleoducto Golondrina-Cullen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/06/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156296060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156499977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Rancho Grande ZG-A</t>
+          <t>Construcción de Colector de 14, Nudo Bahía Felipe a Nudo Chorrillo Cortado</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,21 +683,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155653010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156296060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
+          <t>Línea de Flujo PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>12000</v>
+        <v>500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155653010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
+          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,11 +779,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>750</v>
+        <v>12000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
+          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
+          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>30/08/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Cabaña Oeste</t>
+          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,11 +923,11 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>30/08/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
+          <t>Genérica Sub-Bloque Cabaña Oeste</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>750</v>
+        <v>220000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>07/06/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Invernada ZG-A</t>
+          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>514</v>
+        <v>750</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>07/06/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
+          <t>Línea de Flujo PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12000</v>
+        <v>514</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>29/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
+          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,11 +1115,11 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2620</v>
+        <v>12000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>29/04/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Trébol ZG-B</t>
+          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,11 +1163,11 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>250</v>
+        <v>2620</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
+          <t>Línea de Flujo PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1211,11 +1211,11 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19/11/2020</t>
+          <t>18/01/2021</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,11 +1351,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>975</v>
+        <v>10</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>975</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>19/11/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/10/2020</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
+          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,11 +1499,11 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/06/2020</t>
+          <t>13/10/2020</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Estimulación hidráulica del pozo Koo x-1</t>
+          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>02/01/2020</t>
+          <t>10/06/2020</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Producción del pozo Koo x-1</t>
+          <t>Estimulación hidráulica del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>760</v>
+        <v>1500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Rigby x-1</t>
+          <t>Producción del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,11 +1643,11 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>02/01/2020</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Huillin x-1</t>
+          <t>Desarrollo del pozo Rigby x-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1691,11 +1691,11 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2160</v>
+        <v>1760</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>27/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Koo x-1</t>
+          <t>Desarrollo del pozo Huillin x-1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>27/12/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
+          <t>Desarrollo del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6000</v>
+        <v>2160</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>04/12/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
+          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,11 +1835,11 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>213000</v>
+        <v>6000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>04/12/2019</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Línea de Flujo Tres Lagos 110</t>
+          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,11 +1883,11 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>400</v>
+        <v>213000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/08/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
+          <t>Línea de Flujo Tres Lagos 110</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
+          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,21 +1979,21 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>213000</v>
+        <v>400</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>20/08/2019</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,21 +2027,21 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>700</v>
+        <v>213000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/06/2019</t>
+          <t>05/08/2019</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
+          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2075,11 +2075,11 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>44800</v>
+        <v>700</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18/12/2018</t>
+          <t>20/06/2019</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>600</v>
+        <v>44800</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
+          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,11 +2171,11 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11/12/2018</t>
+          <t>18/12/2018</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
+          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,11 +2219,11 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>11/12/2018</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6 Líneas de Flujo en el Bloque Arenal</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>55</v>
+        <v>4000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18/05/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>6 Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,11 +2315,11 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>14000</v>
+        <v>55</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>16/05/2018</t>
+          <t>18/05/2018</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,11 +2363,11 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15/03/2018</t>
+          <t>16/05/2018</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,21 +2411,21 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09/03/2018</t>
+          <t>15/03/2018</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,21 +2459,21 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>55</v>
+        <v>14000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19/02/2018</t>
+          <t>09/03/2018</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,11 +2507,11 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>186000</v>
+        <v>55</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>13/12/2017</t>
+          <t>19/02/2018</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Tres Lagos</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>400</v>
+        <v>186000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>07/11/2017</t>
+          <t>13/12/2017</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5 Multipozos en el Bloque Arenal</t>
+          <t>Extracción de Áridos Tres Lagos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>52000</v>
+        <v>400</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17/10/2017</t>
+          <t>07/11/2017</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>5 Multipozos en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,11 +2651,11 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>21000</v>
+        <v>52000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09/08/2017</t>
+          <t>17/10/2017</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Interconexión Líneas de Flujo</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,11 +2699,11 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>500</v>
+        <v>21000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>17/03/2017</t>
+          <t>09/08/2017</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>Interconexión Líneas de Flujo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>22000</v>
+        <v>500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132262456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Colector Barwick</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 5 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,21 +2795,21 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>22000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>17/02/2017</t>
+          <t>17/03/2017</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132255457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>Colector Barwick</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,21 +2843,21 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>42000</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>03/01/2017</t>
+          <t>17/02/2017</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132197289&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,21 +2891,21 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1200</v>
+        <v>42000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18/07/2016</t>
+          <t>03/01/2017</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO POZOS PAD CARANCHO ZGA, CABAÑA OESTE ZGE Y CABAÑA ESTE ZGB</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,11 +2939,11 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>20000</v>
+        <v>1200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>29/04/2016</t>
+          <t>18/07/2016</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131612373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Fracturación Hidraúlica de 4 Multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,11 +2987,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18/02/2016</t>
+          <t>29/04/2016</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131365949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131125637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
+          <t>Líneas de Flujo Huiro B, PAD Cabaña Este ZG-A y PAD Río del Oro ZG-D</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,11 +3083,11 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>21000</v>
+        <v>1200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>18/02/2016</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131166025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
+          <t>Fracturación Hidráulica de 4 Pozos y 2 multipozos en Bloque Arenal</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,21 +3131,21 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>450</v>
+        <v>21000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131142900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
+          <t>Líneas de Flujo Punta Piedra Oeste ZG-A, Cortado Creek ZG-A y Estancia Rita ZG-A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,21 +3179,21 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131102168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
+          <t>Construcción de Líneas de Flujo de Aguas de Formación y Pozo Reinyector Victoria Sur 13</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,11 +3227,11 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA OESTE ZGC, PAD CABAÑA OESTE ZGD Y POZO ARAUCANO 1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>7920</v>
+        <v>1200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130926156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,11 +3323,11 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>21000</v>
+        <v>7920</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130925352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
+          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,11 +3371,11 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>204000</v>
+        <v>21000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>02/09/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
+          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2400</v>
+        <v>204000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
+          <t>Transporte, Cargadero y Descargadero de Petróleo Crudo para Camiones Planta Cullen</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,21 +3467,21 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>850</v>
+        <v>2400</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>18/08/2015</t>
+          <t>02/09/2015</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130740722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Modificación Trazado Línea de Flujo Lircay Oeste ZG-1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130711765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
+          <t>Fracturación Hidráulica de 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/08/2015</t>
+          <t>18/08/2015</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130698320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>Fracturación Hidráulica 4 Pozos Sector Río del Oro, Bloque Caupolicán Tierra del Fuego</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>04/08/2015</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130678100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Colectores del Bloque Arenal</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>7920</v>
+        <v>1600</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
+          <t>Colectores del Bloque Arenal</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>20000</v>
+        <v>7920</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>MULTIPOZO Y LÍNEA DE FLUJO PUNTA PIEDRA SUR ZG1 (ABCDE)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3755,21 +3755,21 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1600</v>
+        <v>20000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130564791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3803,21 +3803,21 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1144</v>
+        <v>1600</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15/05/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
+          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,11 +3851,11 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>850</v>
+        <v>1144</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>15/05/2015</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
+          <t>Líneas de Flujo Punta Baja 15 y Punta Baja 1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
+          <t>Líneas de Flujo Catalina Sur 31, 44, 48 y 50A</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130400777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
+          <t>LÍNEAS DE FLUJO MANANTIALES 14, RÍO DEL ORO 2 Y PAD ARAUCANO ZG1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,11 +3995,11 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130399143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
+          <t>Gasoductos Complementarios al Troncal Sara - Cullen</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
+          <t>LÍNEA DE FLUJO POZO RÍO DEL ORO SUR OESTE 1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130330241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>LÍNEAS DE FLUJO PAD CABAÑA ZG 2, PAD CABAÑA ZG 4, RETAMOS 2, RETAMOS E, LIRCAY D, PELEQUEN A Y PUNTA BAJA 15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4139,11 +4139,11 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>39600</v>
+        <v>1050</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>17/03/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130327908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 22 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4187,11 +4187,11 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>800</v>
+        <v>39600</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>17/03/2015</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130311029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
+          <t>Líneas de Flujo Espora H y Lautaro Sur 7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4235,11 +4235,11 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130242274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
+          <t>Líneas de Flujo a Baterías Cullen 800, Cullen 820, Victoria 1 y Catalina 2 en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4283,11 +4283,11 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Líneas de Flujo Lynch PK-A y Lynch Norte PK-A</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4331,7 +4331,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4379,11 +4379,11 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>43200</v>
+        <v>750</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>09/12/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130075058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
+          <t>FRACTURACIÓN HIDRÁULICA EN 24 POZOS DE HIDROCARBUROS, BLOQUE ARENAL",</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>55000</v>
+        <v>43200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130022536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de pozos Hidrocarburíferos en Área Desenka</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>750</v>
+        <v>55000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>09/12/2014</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130041291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>980</v>
+        <v>750</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129921434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloque Arenal</t>
+          <t>Construcción de Línea de Flujo pozo Primavera Sur 2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>150000</v>
+        <v>980</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>06/11/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129901078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
+          <t>Genérica Sub Bloque Arenal</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>22500</v>
+        <v>150000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>06/11/2014</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129928790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Karukinka</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4667,21 +4667,21 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>27/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129924721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Puq</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>750</v>
+        <v>45000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/10/2014</t>
+          <t>27/10/2014</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129913293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Extracción y procesamiento de áridos Tafra</t>
+          <t>LÍNEAS DE FLUJO MULTIPOZOS CABAÑA ZG5, CABAÑA SUR ZG3, CABAÑA SUR ZG4, PUNTA PIEDRA ZG1 Y RÍO DEL ORO ZG3</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>440</v>
+        <v>750</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>24/10/2014</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129899355&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de áridos Tafra</t>
+          <t>Extracción y procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>29/08/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129796970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Bellavista Sur x-1</t>
+          <t>Extracción y Procesamiento de áridos Tafra</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>800</v>
+        <v>440</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>26/08/2014</t>
+          <t>29/08/2014</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129751579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
+          <t>Desarrollo del pozo Bellavista Sur x-1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4907,11 +4907,11 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>75000</v>
+        <v>800</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>26/08/2014</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129745948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Bellavista</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>25200</v>
+        <v>75000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129706669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
+          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>75000</v>
+        <v>25200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>15/07/2014</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aymi</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5051,11 +5051,11 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>07/07/2014</t>
+          <t>15/07/2014</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Aneki</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>47500</v>
+        <v>45000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129601213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Tanu</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5147,11 +5147,11 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>52500</v>
+        <v>47500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>03/07/2014</t>
+          <t>07/07/2014</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129603155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Háiyen</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>27000</v>
+        <v>52500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>03/07/2014</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129596530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>27/06/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129592250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Keternen</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>27000</v>
+        <v>75000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>23/06/2014</t>
+          <t>27/06/2014</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
+          <t>Genérica Sub-Bloque Espora, Bloque Arenal</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5339,21 +5339,21 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>240</v>
+        <v>27000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>23/06/2014</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129574207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
+          <t>Líneas de Flujo para Pozos Río del Oro ZG-C, Cabaña ZG-E y Carancho A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5387,11 +5387,11 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>16100</v>
+        <v>240</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>16/06/2014</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129567683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 11 POZOS DE HIDROCARBUROS BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>11700</v>
+        <v>16100</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129555754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
+          <t>FRACTURACIÓN HIDRAULICA EN 8 POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5483,11 +5483,11 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3600</v>
+        <v>11700</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11/06/2014</t>
+          <t>16/06/2014</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129553310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
+          <t>Pozos Exploratorios Paraguaya PK-C, D y E</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>75000</v>
+        <v>3600</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>02/06/2014</t>
+          <t>11/06/2014</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129537266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Tanu x-1</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Krenn</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5579,11 +5579,11 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>800</v>
+        <v>75000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>28/05/2014</t>
+          <t>02/06/2014</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129503993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aneki x-1</t>
+          <t>Desarrollo del pozo Tanu x-1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Aymi x-1</t>
+          <t>Desarrollo del pozo Aneki x-1</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5679,17 +5679,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>22/05/2014</t>
+          <t>28/05/2014</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>Desarrollo del pozo Aymi x-1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>20/05/2014</t>
+          <t>22/05/2014</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129495759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
+          <t>MODIFICACIÓN DEL PROYECTO "LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5771,11 +5771,11 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>58800</v>
+        <v>500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>22/04/2014</t>
+          <t>20/05/2014</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129485546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Pantano Oeste x-1</t>
+          <t>7 SUB-BLOQUES EN ARENAL: OSCAR, JOTE, CANARIO, LORO, LOICA, LAUTARO SUR Y CARPINTERO</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>800</v>
+        <v>58800</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Keternen x-1</t>
+          <t>Desarrollo del pozo Pantano Oeste x-1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>17/04/2014</t>
+          <t>22/04/2014</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129414852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
+          <t>Desarrollo del pozo Keternen x-1</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,11 +5915,11 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>976</v>
+        <v>800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>17/04/2014</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
+          <t>Construcción de Línea de flujo pozo Primavera Sur x-1</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1082</v>
+        <v>976</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129343831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN LÍNEAS DE FLUJO POZOS TENO SUR A, LAUTARO 13 Y RETAMOS NORTE ZG B</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,11 +6011,11 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>7000</v>
+        <v>1082</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>25/02/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129348708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
+          <t>CONSTRUCCIÓN DE TRECE LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6059,11 +6059,11 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>25/02/2014</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129276698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
+          <t>Reemplazo de Instalaciones de Producción en Superficie Existentes y Construcción de Complemento para Proyecto Colector Arenal</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,11 +6107,11 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129155081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,7 +6155,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>19200</v>
+        <v>2400</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
+          <t>Proceso de Fracturación Hidráulica en 12 Pozos de Hidrocarburos, Bloque Arenal</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>800</v>
+        <v>19200</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128974284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>REINYECCIÓN DE AGUA PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 5 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,11 +6251,11 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>03/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128976410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
+          <t>CONSTRUCCIÓN DE SEIS LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6299,11 +6299,11 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>06/11/2013</t>
+          <t>03/12/2013</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128853265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
+          <t>"LÍNEAS DE FLUJO E INSTALACIONES DE PRODUCCIÓN POZOS RÍO DEL ORO 5 Y RÍO DEL ORO NORTE 1"</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6347,11 +6347,11 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>11200</v>
+        <v>1800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>30/09/2013</t>
+          <t>06/11/2013</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128751024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
+          <t>PROCESO DE FRACTURACIÓN HIDRÁULICA EN POZOS DE HIDROCARBUROS, BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>16</v>
+        <v>11200</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>24/09/2013</t>
+          <t>30/09/2013</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128605891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Adecuación Relleno Sanitario según D.S. 189/2005</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>6000</v>
+        <v>16</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>24/09/2013</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128583535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,11 +6539,11 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>37500</v>
+        <v>18000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>04/09/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,11 +6587,11 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>850</v>
+        <v>37500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>29/08/2013</t>
+          <t>04/09/2013</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
+          <t>Reinyección de Agua Producto de la Extracción de Hidrocarburos en Pozos Existentes</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,21 +6635,21 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>37500</v>
+        <v>850</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>26/07/2013</t>
+          <t>29/08/2013</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128516188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
+          <t>Genérica Sub Bloques Punta Baja, Lautaro y Maule Oeste en Bloque Arenal</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,7 +6683,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>6000</v>
+        <v>37500</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8369440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>GENÉRICA SUB-BLOQUE VICTORIA-LAS VEGAS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,21 +6779,21 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2500</v>
+        <v>18000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>26/07/2013</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
+          <t>PERFORACIÓN DE POZO EXPLORATORIO RIO DEL ORO ZG-A</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,21 +6827,21 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>14/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8254511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LYNCH V-1</t>
+          <t>Perforación de Pozos Exploratorios Lautaro Sur PK A y Lautaro Sur PK B</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,11 +6875,11 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>150</v>
+        <v>4000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>11/06/2013</t>
+          <t>14/06/2013</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8245071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
+          <t>LÍNEA DE FLUJO LYNCH V-1</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,11 +6923,11 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>03/06/2013</t>
+          <t>11/06/2013</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8230392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
+          <t>Perforación de Pozo Exploratorio Cullen PK A</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6971,11 +6971,11 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>30/04/2013</t>
+          <t>03/06/2013</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8186111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Caracol B</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Teno C</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>25/04/2013</t>
+          <t>30/04/2013</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
+          <t>Perforación de Pozo Exploratorio Caracol B</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,11 +7067,11 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>19/04/2013</t>
+          <t>25/04/2013</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8069962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS ALMEJA J2 y K</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,11 +7115,11 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1155</v>
+        <v>2400</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>22/03/2013</t>
+          <t>19/04/2013</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8071961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
+          <t>Construcción de Nueve Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,11 +7163,11 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1370</v>
+        <v>1155</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>22/03/2013</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
+          <t>Construcción de Colector Tinguiririca y Líneas de Flujo para Pozos Geike A, Grey A y Pingo A</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,11 +7211,11 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2500</v>
+        <v>1370</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
+          <t>Perforación de Pozo Exploratorio Sombrero Oeste B</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,11 +7259,11 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>15/02/2013</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7884894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
+          <t>Perforación de Pozo Exploratorio Lynch V-1</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,11 +7307,11 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>6600</v>
+        <v>1200</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>30/11/2012</t>
+          <t>15/02/2013</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7879416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
+          <t>GENÉRICA SUB-BLOQUE LYNCH</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,11 +7355,11 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>30/11/2012</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7576599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
+          <t>Perforación de Pozos Exploratorios Chañarcillo Sur PK B, Chañarcillo Sur PK C y Las Vegas PK A</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,11 +7403,11 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7512685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
+          <t>Perforación de Pozos Exploratorios Paraguaya PK A y Paraguaya PK B</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,11 +7451,11 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>90000</v>
+        <v>5100</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>25/09/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7511558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
+          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7499,11 +7499,11 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>21/08/2012</t>
+          <t>25/09/2012</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
+          <t>Perforación de Pozos Exploratorios Cabaña ZG A, Punta Piedra ZG A y Retamos ZG A</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,11 +7547,11 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>21/08/2012</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Lircay A y Lircay B</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7595,11 +7595,11 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>174</v>
+        <v>2000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>26/06/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7167711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Manantiales</t>
+          <t>Construcción de Líneas de Flujo para Pozos Arenal Oeste A y Cabañas Norte A</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7643,11 +7643,11 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>9600</v>
+        <v>174</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>06/06/2012</t>
+          <t>26/06/2012</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7055429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
+          <t>Genérica Sub-Bloque Manantiales</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7691,11 +7691,11 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>60000</v>
+        <v>9600</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>24/04/2012</t>
+          <t>06/06/2012</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
+          <t>Genérica Sub-Bloques de Arenal Ñuble-Lautaro Oeste-Rosal-Loncomilla-Maule-Itata</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7739,11 +7739,11 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>420</v>
+        <v>60000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>09/04/2012</t>
+          <t>24/04/2012</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6832812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
+          <t>CONSTRUCCIÓN DE LÍNEAS DE FLUJO PARA LOS FUTUROS POZOS CHAÑARCILLO J, COLINA SUR A y TENO B</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7787,11 +7787,11 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>05/04/2012</t>
+          <t>09/04/2012</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6768936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Geike A</t>
+          <t>LÍNEAS DE FLUJO CULLEN D10 Y D11</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7835,11 +7835,11 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2000</v>
+        <v>280</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>20/03/2012</t>
+          <t>05/04/2012</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6764192&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
+          <t>Perforación de Pozo Exploratorio Geike A</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7883,11 +7883,11 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>710</v>
+        <v>2000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>25/01/2012</t>
+          <t>20/03/2012</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6714480&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Manantiales Oeste C y Victoria Sur k</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,11 +7931,11 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>30000</v>
+        <v>710</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>16/01/2012</t>
+          <t>25/01/2012</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6530558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
+          <t>Generica Arenal Sub Bloque Arenal Oeste - Cabaña Norte - Lircay</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7979,11 +7979,11 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2200</v>
+        <v>30000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>29/12/2011</t>
+          <t>16/01/2012</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6497006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
+          <t>Perforación de Pozos Exploratorios Cullen D-10 y Cullen D-11</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8027,11 +8027,11 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>23/12/2011</t>
+          <t>29/12/2011</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6429354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
+          <t>Perforación de Pozo Exploratorio Chañarcillo J</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8075,11 +8075,11 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>96000</v>
+        <v>1100</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>20/12/2011</t>
+          <t>23/12/2011</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6412761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
+          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8123,11 +8123,11 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1510</v>
+        <v>96000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>05/12/2011</t>
+          <t>20/12/2011</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
+          <t>Construcción de Líneas de Flujo para los Pozos Tinguiririca 1 (Ex-A) y Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,11 +8171,11 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2200</v>
+        <v>1510</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>05/12/2011</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6340607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
+          <t>Perforación de Pozos Exploratorios Manantiales Oeste C y Victoria Sur K</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8219,11 +8219,11 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>15000</v>
+        <v>2200</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>18/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6298744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
+          <t>Perforación de Pozos Exploratorios en elSub Bloque Zorzal Perteneciente al Bloque Intracampo</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8267,11 +8267,11 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>11/11/2011</t>
+          <t>18/11/2011</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6269809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
+          <t>Construcción de Línea de Flujo para Pozo Victoria Este V5</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6237602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
+          <t>Perforación y Construcción de Línea de Flujo para Pozo Exploratorio Mataquito A</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,11 +8363,11 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>11/11/2011</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
+          <t>Perforación de Pozo Exploratorio Colina Sur A</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,11 +8411,11 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>06/09/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
+          <t>Construcción de Línea de Flujo Para Pozo Madrugada C</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,11 +8459,11 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>28/07/2011</t>
+          <t>06/09/2011</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6000919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
+          <t>Perforación de Pozo Exploratorio Punta Baja Oeste C</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,11 +8507,11 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>18/07/2011</t>
+          <t>28/07/2011</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
+          <t>Alternativa para Construcción Línea de Flujo Pozo Teno A</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,11 +8555,11 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>07/06/2011</t>
+          <t>18/07/2011</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5817103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
+          <t>Construcción de Línea de Flujo para Pozo Chañarcillo Sur A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>06/06/2011</t>
+          <t>07/06/2011</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5686381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
+          <t>Construcción de Línea de Flujo para Pozo Punta Baja Sur A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8651,11 +8651,11 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>31/05/2011</t>
+          <t>06/06/2011</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5684136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
+          <t>Perforación de Pozos Exploratorios Lontué A, Rapel A, Punta Baja Oeste B y Madrugada D</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,11 +8699,11 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>3100</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>20/05/2011</t>
+          <t>31/05/2011</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5666173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
+          <t>Construcción de Líneas de Flujo para Pozos Las Violetas 1, Teno A y Mataquito B</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>20/05/2011</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5640092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
+          <t>Reemplazo de Colector Arenal y Construcción de 2 Ductos de Complemento</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8795,21 +8795,21 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2250</v>
+        <v>3100</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>03/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS LLAIMA A Y ANTUCO A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,21 +8843,21 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1300</v>
+        <v>2250</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>26/01/2011</t>
+          <t>03/03/2011</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5391429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
+          <t>Descargadero y cargadero de petróleo crudo para camiones en isla de carga planta Sara</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8891,21 +8891,21 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>13/12/2010</t>
+          <t>26/01/2011</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
+          <t>Construcción de Línea de Flujo para Pozo Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,11 +8939,11 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>13/12/2010</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5136404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
+          <t>Construcción Líneas de Flujo para Pozos Victoria Este V1 y V2</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8987,11 +8987,11 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>12/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5023923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
+          <t>Normalización Línea de Flujo para Pozo Chañarcillo 12</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>24/08/2010</t>
+          <t>12/10/2010</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
+          <t>Construcción Línea de Flujo para el Pozo Lynch U1</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9083,11 +9083,11 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>19/08/2010</t>
+          <t>24/08/2010</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4861246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
+          <t>Construcción Línea de Flujo para el Pozo Manantiales Oeste A</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,11 +9131,11 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>22/07/2010</t>
+          <t>19/08/2010</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
+          <t>Perforación de Pozos Victoria Este V3, V4 y V5</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9179,11 +9179,11 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1000</v>
+        <v>2250</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>20/07/2010</t>
+          <t>22/07/2010</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TINGUIRIRICA A</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>12/07/2010</t>
+          <t>20/07/2010</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4769485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Perforación del Pozo Exploratorio Mataquito B</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO B</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,11 +9275,11 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>16/06/2010</t>
+          <t>12/07/2010</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4745963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>Perforación del Pozo Exploratorio Mataquito B</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9323,11 +9323,11 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>16/06/2010</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
+          <t>Transporte y Descargadero de Petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9371,11 +9371,11 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
+          <t>PERFORACIÓN DEL POZO EXPLORATORIO TENO A</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9419,11 +9419,11 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
+          <t>Construcción Línea de Flujo para el Pozo Calafate P-6</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9467,21 +9467,21 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>10/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4599222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
+          <t>Transporte y Descargadero de petróleo Crudo Para Camiones Terminal Gregorio</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9515,21 +9515,21 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>10/05/2010</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4569679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
+          <t>Perforación de Pozo Exploratorio Las Vegas K, del Bloque Arenal</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9563,11 +9563,11 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>22/03/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4559100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Pozo de Exploración Manantiales Oeste B</t>
+          <t>Perforación de Pozos de Exploratorios Victoria Este V-1 Y V-2</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9611,11 +9611,11 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>22/03/2010</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
+          <t>Pozo de Exploración Manantiales Oeste B</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>26/02/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
+          <t>Perforación de Pozo Exploratorio Lynch U-1</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9707,11 +9707,11 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>26/02/2010</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4423716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
+          <t>Perforación de Pozo de Exploración y Desarrollo Chañarcillo Sur A (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9755,11 +9755,11 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>04/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
+          <t>Líneas de Flujo e Instalaciones de Producción Pozos Río del oro 1-A, Río del Oro 3 y Nudo Clarencia-Estación GASCO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9803,11 +9803,11 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>20/11/2009</t>
+          <t>04/01/2010</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4291913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
+          <t>Perforación de pozo exploración Lynch Este A, Este B y Este C (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9855,7 +9855,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>20/11/2009</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4204463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
+          <t>Perforación de 3 pozos exploratorios - Bloque - Intracampos sector Calafate - Tierra del fuego (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9899,11 +9899,11 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>28/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
+          <t>Perforación de pozo exploración Las Violetas A-T (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9947,11 +9947,11 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>20/10/2009</t>
+          <t>28/10/2009</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4146275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
+          <t>Perforación de 4 pozos exploratorios sector Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9995,11 +9995,11 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>02/10/2009</t>
+          <t>20/10/2009</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4119788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
+          <t>Pozo de Exploración y Producción Manantiales Oeste A (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10043,11 +10043,11 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>02/10/2009</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
+          <t>CONSTRUCCIÓN LÍNEA DE FLUJO PARA OPERACIÓN DEL POZO CHAÑARCILLO Nº 38 (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10091,11 +10091,11 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>18/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3885783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
+          <t>POZO DE EXPLORACIÓN Y PRODUCCIÓN CALAFATE Y3 (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10139,11 +10139,11 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>52000</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>12/06/2009</t>
+          <t>18/06/2009</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
+          <t>ACTIVIDADES DE PERFORACIÓN POZOS EN ÁREA CLARENCIA, BLOQUE CAUPOLICÁN. TIERRA DEL FUEGO (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10187,11 +10187,11 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2500</v>
+        <v>52000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>12/06/2009</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3842131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10239,17 +10239,17 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>19/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3444606&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIO Y PRODUCCIÓN CHAÑARCILLO Nº37 (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10283,21 +10283,21 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2346</v>
+        <v>2500</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>19/12/2008</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3437705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
+          <t>"Construcción Línea de Flujo Pozo Clarencia 1-A (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10331,11 +10331,11 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>3200</v>
+        <v>2346</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3373466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
+          <t>PERFORACIÓN DE LOS POZOS DE EXPLORA CIÓN CACHAPOAL 1, NEVENKA 2 Y (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10379,11 +10379,11 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>100</v>
+        <v>3200</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
+          <t>CONSTRUCCIÓN DE UNA LÍNEA DE FLUJO, PARA LA EXPLOTACIÓN DEL POZO CALAFATE Nº 14 (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,15 +10423,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Primavera</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>23/07/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3137970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
+          <t>LEVANTAMIENTO PLAN REGULADOR COMUNAL DE PRIMAVERA (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,15 +10471,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Ilustre Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>30800</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>12/03/2008</t>
+          <t>23/07/2008</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3043836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE ARENAL (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10523,11 +10523,11 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>25200</v>
+        <v>30800</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>12/03/2008</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2774916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,15 +10567,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>21</v>
+        <v>25200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
+          <t>Sistema de Disposición Controlada de Residuo Industrial Líquido en Suelo (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,15 +10615,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>13000</v>
+        <v>21</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2427747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,30 +10658,30 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,30 +10706,30 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,15 +10759,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Inversiones Polo Sur Ltda</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
+          <t>Planta textil de Inversiones Polo Sur Ltda. Planta Textil Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10815,17 +10815,17 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>24/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1979846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Planta Textil de Inversiones Polo Sur Planta Textil de Inversiones Polo Sur (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,30 +10850,30 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Inversiones Polo Sur Ltda</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>24/01/2007</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10911,17 +10911,17 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11003,7 +11003,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
+          <t>Saneamiento Ambiental de 70 Fosas Cullen A Saneamiento Ambiental de 70 Fosas Cullen A (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11051,11 +11051,11 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>22/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11099,11 +11099,11 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>26/10/2006</t>
+          <t>22/12/2006</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
+          <t>Construcción de Líneas de Flujo pozos 16 y 28 Yacimiento Calafate (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11147,11 +11147,11 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>1800</v>
+        <v>65</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>28/08/2006</t>
+          <t>26/10/2006</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Perforación Pozo Chañarcillo Q Perforación Pozo Chañarcillo Q (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,25 +11191,25 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>28/08/2006</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1656534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11247,17 +11247,17 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,30 +11282,30 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,30 +11330,30 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>829</v>
+        <v>4000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>16/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Tratamiento Efluentes de las Instalaciones de E&amp;P de ENAP Magallanes en Sector BRC (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,30 +11378,30 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4000</v>
+        <v>829</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>16/03/2006</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1350381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,40 +11416,40 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>73200</v>
+        <v>4000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,12 +11464,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
+          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -11479,15 +11479,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Gabriel Patiño Kaufer</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>16000</v>
+        <v>73200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>15/11/2004</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11535,17 +11535,17 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>15/11/2004</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,12 +11560,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Gasoducto Segundo Cruce</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -11575,25 +11575,25 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Gabriel Patiño Kaufer</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>25400</v>
+        <v>16000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>24/10/2003</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,12 +11608,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Gasoducto Segundo Cruce</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -11623,15 +11623,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>25400</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>24/10/2003</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6268&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,15 +11671,15 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>13/12/2002</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,12 +11704,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
+          <t>Modificación Parcial Trazado Proyecto Gasoducto Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -11727,7 +11727,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>25/06/2002</t>
+          <t>13/12/2002</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,12 +11752,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
+          <t>Complemento Explotación Yacimiento CAM - 2A Sur</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -11771,11 +11771,11 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>40</v>
+        <v>9500</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>18/06/2002</t>
+          <t>25/06/2002</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Yacimiento Calafate</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11819,7 +11819,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,12 +11848,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
+          <t>Optimización del Manejo Global de Aceites Lubricantes en Area Isla y Continente</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -11867,11 +11867,11 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4100</v>
+        <v>200</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>17/01/2002</t>
+          <t>18/06/2002</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,12 +11896,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
+          <t>Red de Gasoductos Area Isla Troncal Cullen - Sara - Chañarcillo - Victoria Norte</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -11915,11 +11915,11 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>22/10/2001</t>
+          <t>17/01/2002</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Aprovechamiento de Gases Yacimientos Cuarto Chorrillo y Calafate</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,30 +11954,30 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>22/10/2001</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12002,20 +12002,20 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Lana y Carne de la Patagonia Chile S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>05/03/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Lavado de Lana Wool &amp; Meat Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,30 +12050,30 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Lana y Carne de la Patagonia Chile S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/03/2001</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Complejo Bahía Azul</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,20 +12098,20 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Primavera</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,12 +12136,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Poliducto Catalina Sur - Gregorio</t>
+          <t>Complejo Bahía Azul</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -12151,15 +12151,15 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>15500</v>
+        <v>250</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,43 +12184,91 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
+          <t>Poliducto Catalina Sur - Gregorio</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>11/11/1998</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1455&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Primavera</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
           <t>Construcción Zona de Camping en Cerro Sombrero</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
         <is>
           <t>I. Municipalidad de Primavera</t>
         </is>
       </c>
-      <c r="F247" t="n">
+      <c r="F248" t="n">
         <v>20</v>
       </c>
-      <c r="G247" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>20/06/1997</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I247" t="inlineStr">
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=819&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J247" t="inlineStr">
+      <c r="J248" t="inlineStr">
         <is>
           <t>Primavera</t>
         </is>

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/10/2022</t>
+          <t>20/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Primavera.xlsx
+++ b/data/Primavera.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J248"/>
+  <dimension ref="A1:J249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Estancia Rita ZG-C</t>
+          <t>Nuevas Líneas de Flujo Sub-Bloque Cabaña Oeste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12000</v>
+        <v>410</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/10/2022</t>
+          <t>17/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157299795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159047450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos La Italiana</t>
+          <t>Fracturación Hidráulica PAD Estancia Rita ZG-C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08/09/2022</t>
+          <t>20/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156897452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157299795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Estancia Rita ZG-C</t>
+          <t>Extracción y Procesamiento de Áridos La Italiana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/08/2022</t>
+          <t>08/09/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156701562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156897452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ductos para el Transporte de Agua de Formación en Sector de Tres Lagos</t>
+          <t>Línea de Flujo PAD Estancia Rita ZG-C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/07/2022</t>
+          <t>19/08/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156502281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156701562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oleoducto Golondrina-Cullen</t>
+          <t>Ductos para el Transporte de Agua de Formación en Sector de Tres Lagos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3000</v>
+        <v>350</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156499977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156502281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Construcción de Colector de 14, Nudo Bahía Felipe a Nudo Chorrillo Cortado</t>
+          <t>Oleoducto Golondrina-Cullen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/06/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156296060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156499977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Rancho Grande ZG-A</t>
+          <t>Construcción de Colector de 14, Nudo Bahía Felipe a Nudo Chorrillo Cortado</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155653010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156296060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
+          <t>Línea de Flujo PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,11 +779,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>12000</v>
+        <v>500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155653010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
+          <t>Fracturación Hidráulica PAD Rancho Grande ZG-A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>750</v>
+        <v>12000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155436230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
+          <t>Fracturación Hidráulica Pozo Exploratorio Picuyo ZG-A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155278846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
+          <t>Actualización y Mejoras a la Batería Chañarcillo 1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,11 +923,11 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30/08/2021</t>
+          <t>21/01/2022</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154560139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Genérica Sub-Bloque Cabaña Oeste</t>
+          <t>Fracturación Hidráulica PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>30/08/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153041990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
+          <t>Genérica Sub-Bloque Cabaña Oeste</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>750</v>
+        <v>220000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>07/06/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152932512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Invernada ZG-A</t>
+          <t>Fracturación Hidráulica Pozo Walolén ZG-A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>514</v>
+        <v>750</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>07/06/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152055386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
+          <t>Línea de Flujo PAD Invernada ZG-A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,11 +1115,11 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12000</v>
+        <v>514</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>29/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151907215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
+          <t>Fracturación Hidráulica del PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,11 +1163,11 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2620</v>
+        <v>12000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>29/04/2021</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151630465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Trébol ZG-B</t>
+          <t>Modificación Trazado Colector 8 ECA-Madrugada</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1211,11 +1211,11 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>250</v>
+        <v>2620</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
+          <t>Línea de Flujo PAD Trébol ZG-B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151188497&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/11/2020</t>
+          <t>18/01/2021</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,11 +1399,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>975</v>
+        <v>10</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149078991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
+          <t>Línea de Flujo PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Swanhouse S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>975</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>19/11/2020</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149071251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
+          <t>Relleno Sanitario Particular, Swanhouse S.A.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Swanhouse S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/10/2020</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148787201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
+          <t>Fracturación Hidráulica del PAD Estancia Rita ZG-B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,11 +1547,11 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/06/2020</t>
+          <t>13/10/2020</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148068227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Estimulación hidráulica del pozo Koo x-1</t>
+          <t>Fracturación Hidráulica de PAD Cabaña Oeste ZG-1 y PAD Punta Piedra ZG-C</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>02/01/2020</t>
+          <t>10/06/2020</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146806148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Producción del pozo Koo x-1</t>
+          <t>Estimulación hidráulica del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>760</v>
+        <v>1500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Rigby x-1</t>
+          <t>Producción del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1691,11 +1691,11 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1760</v>
+        <v>760</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>02/01/2020</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145313082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Huillin x-1</t>
+          <t>Desarrollo del pozo Rigby x-1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1739,11 +1739,11 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2160</v>
+        <v>1760</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>27/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Koo x-1</t>
+          <t>Desarrollo del pozo Huillin x-1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>27/12/2019</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145256341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
+          <t>Desarrollo del pozo Koo x-1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>6000</v>
+        <v>2160</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>04/12/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145259447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
+          <t>FRACTURACIÓN HIDRÁULICA DEL PAD CORTADO CREEK ZG-D</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,11 +1883,11 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>213000</v>
+        <v>6000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>04/12/2019</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145094850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Línea de Flujo Tres Lagos 110</t>
+          <t>GENÉRICA SUB-BLOQUE ARENAL NORTE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,11 +1931,11 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>400</v>
+        <v>213000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/08/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144530340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
+          <t>Línea de Flujo Tres Lagos 110</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143987003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
+          <t>LÍNEA DE FLUJO DESDE POZOS CABAÑA OESTE ZG1/ZG2, HASTA EL PAD CABAÑA OESTE 1 EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,21 +2027,21 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>213000</v>
+        <v>400</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>20/08/2019</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143985279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2075,21 +2075,21 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>700</v>
+        <v>213000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/06/2019</t>
+          <t>05/08/2019</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
+          <t>Incorporación de Nueva Fractura Hidráulica para el PAD Cortado Creek ZG-C Pozo Satélite 8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,11 +2123,11 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>44800</v>
+        <v>700</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18/12/2018</t>
+          <t>20/06/2019</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143538189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
+          <t>CONSTRUCCIÓN DE 4 LÍNEAS DE FLUJO Y FRACTURACIÓN HIDRÁULICA DE 4 MULTIPOZOS EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>600</v>
+        <v>44800</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142040082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
+          <t>LÍNEA DE FLUJO LOOP 10? EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,11 +2219,11 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11/12/2018</t>
+          <t>18/12/2018</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142039250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
+          <t>INCORPORACIÓN DE NUEVAS FRACTURAS A PAD PUNTA PIEDRA OESTE ZGB</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>11/12/2018</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142009737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6 Líneas de Flujo en el Bloque Arenal</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE PAD CABAÑA NORTE ZG1 Y PAD PUNTA PIEDRA ZGC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,11 +2315,11 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>55</v>
+        <v>4000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18/05/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141017596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>6 Líneas de Flujo en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,11 +2363,11 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>14000</v>
+        <v>55</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>16/05/2018</t>
+          <t>18/05/2018</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139187563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,11 +2411,11 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15/03/2018</t>
+          <t>16/05/2018</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139070988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,21 +2459,21 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/03/2018</t>
+          <t>15/03/2018</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138692296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 7 PAD EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,21 +2507,21 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>55</v>
+        <v>14000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19/02/2018</t>
+          <t>09/03/2018</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138691393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>4 LÍNEAS DE FLUJO EN EL BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,11 +2555,11 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>186000</v>
+        <v>55</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>13/12/2017</t>
+          <t>19/02/2018</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138524022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Tres Lagos</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>400</v>
+        <v>186000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>07/11/2017</t>
+          <t>13/12/2017</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5 Multipozos en el Bloque Arenal</t>
+          <t>Extracción de Áridos Tres Lagos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>52000</v>
+        <v>400</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17/10/2017</t>
+          <t>07/11/2017</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132855021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
+          <t>5 Multipozos en el Bloque Arenal</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,11 +2699,11 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>21000</v>
+        <v>52000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09/08/2017</t>
+          <t>17/10/2017</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132779012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Interconexión Líneas de Flujo</t>
+          <t>FRACTURACIÓN HIDRÁULICA DE 4 POZOS Y 3 MULTIPOZOS EN BLOQUE ARENAL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,11 +2747,11 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>500</v>
+        <v>21000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>17/03/2017</t>
+          <t>09/08/2017</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         